--- a/EB_projekt_menet.xlsx
+++ b/EB_projekt_menet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plkik.sharepoint.com/sites/Esti_projektmunka_gyakorloter/Megosztott dokumentumok/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D857D5A1-E3DA-4FE2-BD1A-097BE72903A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F698BC9-BE54-4A87-A5EB-F9267542A308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
   </bookViews>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
   <si>
     <t>Projektmunka terv</t>
   </si>
@@ -172,7 +173,10 @@
     <t>képek beillesztése (reg.űrlap, sikeres reg. felugró  ablakok)</t>
   </si>
   <si>
-    <t xml:space="preserve">Html PHP összekötése </t>
+    <t xml:space="preserve">php kód elkészítése Html PHP összekötése </t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
   <si>
     <t xml:space="preserve">email küldés kialakítása </t>
@@ -217,6 +221,21 @@
     <t xml:space="preserve">                   Box-ok mentés/törlés gombjai</t>
   </si>
   <si>
+    <t>adatok lekérdezéséhez php kód elkészítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kell még a nem lenyíló mezők adatain túli infok megjelenítése </t>
+  </si>
+  <si>
+    <t>eredmény formázása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eredmény userhez rendelés </t>
+  </si>
+  <si>
+    <t>session_start() function</t>
+  </si>
+  <si>
     <t>4. adományozás és menhely infók</t>
   </si>
   <si>
@@ -235,25 +254,25 @@
     <t>szöveg beillesztése menhelynek</t>
   </si>
   <si>
+    <t>számlaszám megjelenését formázni kell</t>
+  </si>
+  <si>
     <t>asztali alkalmazás</t>
   </si>
   <si>
+    <t>felület kinézetét megtervezni</t>
+  </si>
+  <si>
+    <t>itt lehet a kutyák adatait felvinni</t>
+  </si>
+  <si>
     <t xml:space="preserve">felület elkészítése </t>
   </si>
   <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>itt lehet a kutyák adatait felvinni</t>
-  </si>
-  <si>
-    <t>felület kinézetét megtervezni</t>
-  </si>
-  <si>
     <t>adatbázis kapcsolatot kiépíteni</t>
   </si>
   <si>
-    <t>mezőbevitel programozása</t>
+    <t>mezőbevitel programozása (ment gomb)</t>
   </si>
   <si>
     <t>bejelentkezés</t>
@@ -265,19 +284,25 @@
     <t>képek feltöltése</t>
   </si>
   <si>
+    <t>adatkarbantartás programozása (lekérdez gomb)</t>
+  </si>
+  <si>
+    <t>adatkarbantartás programozása (módosít gomb)</t>
+  </si>
+  <si>
+    <t>a menhely itt állítja a felvitt kutyák státuszát, törlés, adatmódosítás, lekérdezés, lehetőleg egy felületen</t>
+  </si>
+  <si>
+    <t>adatkarbantartás programozása (törlés gomb)</t>
+  </si>
+  <si>
     <t>installer készítése</t>
   </si>
   <si>
     <t>letrehozni a telepítőt, amit emailben kap meg regisztráció után a menhely</t>
   </si>
   <si>
-    <t>adatkarbantartás programozása (módosít gomb)</t>
-  </si>
-  <si>
-    <t>a menhely itt állítja a felvitt kutyák státuszát, törlés, adatmódosítás, lekérdezés, lehetőleg egy felületen</t>
-  </si>
-  <si>
-    <t>adatkarbantartás programozása (törlés gomb)</t>
+    <t>automata e-mail küldés csatolt exe installer fájllal</t>
   </si>
   <si>
     <t>adatbázis</t>
@@ -428,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -473,51 +498,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -691,72 +671,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -766,22 +875,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -790,35 +899,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E7F18-5A48-1C46-BD03-BEEDB5094022}">
-  <dimension ref="B1:I92"/>
+  <dimension ref="B1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1172,24 +1338,24 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:9" s="30" customFormat="1" ht="23.25">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:9" s="26" customFormat="1" ht="23.25">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:9" ht="18.75">
       <c r="B3" s="12" t="s">
@@ -1202,7 +1368,7 @@
         <v>44591</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E87" si="0">F3-D3</f>
+        <f t="shared" ref="E3:E91" si="0">F3-D3</f>
         <v>7</v>
       </c>
       <c r="F3" s="8">
@@ -1211,7 +1377,7 @@
       <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="10"/>
@@ -1236,7 +1402,7 @@
       <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="18.75">
@@ -1259,7 +1425,7 @@
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:9" ht="18.75">
@@ -1269,31 +1435,31 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="25">
-        <v>44591</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="23">
         <v>44620</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" ht="18.75">
       <c r="B8" s="13" t="s">
@@ -1312,8 +1478,10 @@
       <c r="F8" s="8">
         <v>44592</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="10"/>
@@ -1327,7 +1495,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -1342,8 +1510,10 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="10"/>
@@ -1356,8 +1526,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="34" t="s">
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="10"/>
@@ -1370,8 +1542,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="10"/>
@@ -1384,8 +1558,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="34" t="s">
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="10"/>
@@ -1397,33 +1573,33 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B15" s="37" t="s">
+    <row r="15" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="25">
-        <v>44591</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D15" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E15" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="23">
         <v>44620</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="2:9" s="30" customFormat="1" ht="18.75">
+      <c r="G15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
@@ -1443,12 +1619,12 @@
       <c r="G16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="2:9" s="30" customFormat="1" ht="18.75">
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B17" s="13" t="s">
         <v>31</v>
       </c>
@@ -1456,13 +1632,15 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="34" t="s">
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="2:9" s="30" customFormat="1" ht="18.75">
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B18" s="13" t="s">
         <v>32</v>
       </c>
@@ -1470,13 +1648,15 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="2:9" s="30" customFormat="1" ht="18.75">
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
@@ -1484,13 +1664,15 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="34" t="s">
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="2:9" s="30" customFormat="1" ht="18.75">
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B20" s="13" t="s">
         <v>34</v>
       </c>
@@ -1498,11 +1680,13 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="2:9" s="30" customFormat="1" ht="18.75">
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B21" s="13" t="s">
         <v>35</v>
       </c>
@@ -1510,11 +1694,13 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="34" t="s">
+      <c r="G21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="2:9" ht="18.75">
       <c r="B22" s="13" t="s">
@@ -1536,7 +1722,7 @@
       <c r="G22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="10"/>
@@ -1549,8 +1735,10 @@
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="34" t="s">
+      <c r="G23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="10"/>
@@ -1563,8 +1751,10 @@
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="34" t="s">
+      <c r="G24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="10"/>
@@ -1577,8 +1767,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="34" t="s">
+      <c r="G25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="30" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="10"/>
@@ -1590,192 +1782,232 @@
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="34"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B27" s="37" t="s">
+    <row r="27" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B27" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="25">
-        <v>44591</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="23">
         <v>44635</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B28" s="38" t="s">
+      <c r="G27" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="29" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B29" s="38" t="s">
+    <row r="29" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B29" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B30" s="38" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B30" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B31" s="38" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B31" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B32" s="38" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B32" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B33" s="38" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B34" s="38" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B34" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B35" s="38" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B36" s="38"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="2:9" ht="91.5" customHeight="1">
-      <c r="B37" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D35" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F35" s="8">
+        <v>44635</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="2:9" ht="91.5" customHeight="1">
+      <c r="B36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D36" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F36" s="8">
         <v>44635</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="G36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="18.75">
+      <c r="B37" s="13"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="2:9" ht="18.75">
-      <c r="B38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="34"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="2:9" ht="18.75">
+    <row r="39" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="2:9" s="30" customFormat="1" ht="18.75">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F39" s="8">
+        <v>44620</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="18.75">
       <c r="B40" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>10</v>
@@ -1785,787 +2017,1041 @@
       </c>
       <c r="E40" s="7">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F40" s="8">
-        <v>44620</v>
-      </c>
+        <v>-44591</v>
+      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="H40" s="30"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="2:9" ht="18.75">
       <c r="B41" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="34"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="2:9" ht="18.75">
       <c r="B42" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="34"/>
+      <c r="G42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="30"/>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="2:9" ht="18.75">
       <c r="B43" s="13" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="34"/>
+      <c r="G43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="30"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:9" ht="18.75">
-      <c r="B44" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B44" s="13"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="34"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" ht="18.75">
-      <c r="B45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="34"/>
+      <c r="G45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="30"/>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:9" ht="18.75">
       <c r="B46" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="34"/>
+      <c r="G46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="30"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" ht="18.75">
-      <c r="B47" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="34"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="2:9" ht="18.75">
-      <c r="B48" s="13"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B49" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="24" t="s">
+    <row r="48" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B48" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="25">
-        <v>44591</v>
-      </c>
-      <c r="E49" s="26">
+      <c r="D48" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E48" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F48" s="23">
         <v>44620</v>
       </c>
+      <c r="G48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="30"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75">
+      <c r="B49" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="29"/>
+        <v>11</v>
+      </c>
+      <c r="H49" s="30"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="2:9" ht="18.75">
       <c r="B50" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6">
+        <v>44591</v>
+      </c>
       <c r="E50" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-44591</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="34"/>
+        <v>11</v>
+      </c>
+      <c r="H50" s="30"/>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="2:9" ht="18.75">
       <c r="B51" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="34"/>
+      <c r="G51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="30"/>
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="2:9" ht="18.75">
       <c r="B52" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="34"/>
+      <c r="G52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="30"/>
       <c r="I52" s="10"/>
     </row>
     <row r="53" spans="2:9" ht="18.75">
       <c r="B53" s="13" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="34"/>
+      <c r="D53" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="30"/>
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" ht="18.75">
       <c r="B54" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F54" s="14"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="34"/>
+      <c r="G54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="30"/>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="2:9" ht="18.75">
       <c r="B55" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F55" s="14"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="34"/>
+      <c r="G55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="30"/>
       <c r="I55" s="10"/>
     </row>
     <row r="56" spans="2:9" ht="18.75">
       <c r="B56" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F56" s="14"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="10"/>
+      <c r="G56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="30"/>
+      <c r="I56" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="57" spans="2:9" ht="18.75">
-      <c r="B57" s="13"/>
+      <c r="B57" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="6">
+        <v>44591</v>
+      </c>
       <c r="E57" s="7"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="34"/>
+      <c r="G57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="30"/>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B58" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="24" t="s">
+    <row r="58" spans="2:9" ht="18.75">
+      <c r="B58" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="25">
-        <v>44591</v>
-      </c>
-      <c r="E58" s="26">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F58" s="31"/>
+      <c r="D58" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="29"/>
-    </row>
-    <row r="59" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B59" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="29"/>
-    </row>
-    <row r="60" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B60" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="29"/>
-    </row>
-    <row r="61" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B61" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="29"/>
-    </row>
-    <row r="62" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B62" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="29"/>
-    </row>
-    <row r="63" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B63" s="38" t="s">
+      <c r="H58" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B64" s="13" t="s">
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B59" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E59" s="22">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="30"/>
+      <c r="I59" s="25"/>
+    </row>
+    <row r="60" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B60" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="30"/>
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B61" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="30"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B62" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="30"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B63" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="30"/>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B64" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="30"/>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B65" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="29"/>
-    </row>
-    <row r="65" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="30"/>
+      <c r="I65" s="25"/>
+    </row>
+    <row r="66" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="29"/>
-    </row>
-    <row r="66" spans="2:9" s="30" customFormat="1" ht="18.75">
-      <c r="B66" s="13" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F66" s="20"/>
+      <c r="G66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="30"/>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B67" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="29"/>
-    </row>
-    <row r="67" spans="2:9" s="30" customFormat="1" ht="23.25">
-      <c r="B67" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="25">
-        <v>44591</v>
-      </c>
-      <c r="E67" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F67" s="27">
-        <v>44592</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="33"/>
-      <c r="I67" s="29"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="30"/>
+      <c r="I67" s="25"/>
     </row>
     <row r="68" spans="2:9" ht="18.75">
       <c r="B68" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D68" s="6">
         <v>44591</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F68" s="6">
-        <v>44602</v>
+        <v>49</v>
+      </c>
+      <c r="F68" s="8">
+        <v>44640</v>
       </c>
       <c r="G68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="30"/>
+      <c r="I68" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" s="26" customFormat="1" ht="23.25">
+      <c r="B69" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E69" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="23">
+        <v>44592</v>
+      </c>
+      <c r="G69" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="18.75">
-      <c r="B69" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E69" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F69" s="6">
-        <v>44607</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="34"/>
-      <c r="I69" s="10"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="25"/>
     </row>
     <row r="70" spans="2:9" ht="18.75">
       <c r="B70" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D70" s="6">
         <v>44591</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F70" s="6">
-        <v>44612</v>
+        <v>44607</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="34"/>
-      <c r="I70" s="10"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="71" spans="2:9" ht="18.75">
       <c r="B71" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="D71" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E71" s="7">
+        <f>F71-D71</f>
+        <v>11</v>
+      </c>
+      <c r="F71" s="6">
+        <v>44602</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="2:9" ht="18.75">
       <c r="B72" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D72" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="F72" s="6">
-        <v>44634</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="34"/>
+        <v>44612</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="30"/>
       <c r="I72" s="10"/>
     </row>
     <row r="73" spans="2:9" ht="18.75">
       <c r="B73" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D73" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="F73" s="6">
-        <v>44634</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="34"/>
+        <v>44640</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="30"/>
       <c r="I73" s="10"/>
     </row>
     <row r="74" spans="2:9" ht="18.75">
       <c r="B74" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="D74" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F74" s="6">
+        <v>44634</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="30"/>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="2:9" ht="37.5">
+    <row r="75" spans="2:9" ht="18.75">
       <c r="B75" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D75" s="6">
         <v>44591</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F75" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F75" s="6">
+        <v>44634</v>
+      </c>
       <c r="G75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="34"/>
-      <c r="I75" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="21" customHeight="1">
-      <c r="B76" s="39" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="H75" s="30"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75">
+      <c r="B76" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D76" s="6">
         <v>44591</v>
       </c>
       <c r="E76" s="7">
-        <f>F76-D76</f>
-        <v>-44591</v>
-      </c>
-      <c r="F76" s="14"/>
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F76" s="6">
+        <v>44633</v>
+      </c>
       <c r="G76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="34"/>
-      <c r="I76" s="41" t="s">
-        <v>78</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H76" s="30"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="2:9" ht="18.75">
-      <c r="B77" s="12" t="s">
-        <v>79</v>
+      <c r="B77" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="40"/>
-    </row>
-    <row r="78" spans="2:9" ht="23.25">
-      <c r="B78" s="22" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="D77" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F77" s="6">
+        <v>44638</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="30"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="2:9" ht="21" customHeight="1">
+      <c r="B78" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D78" s="6">
         <v>44591</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F78" s="6">
-        <v>44620</v>
+        <v>44639</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="34"/>
-      <c r="I78" s="10"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="36" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="79" spans="2:9" ht="18.75">
-      <c r="B79" s="13" t="s">
-        <v>81</v>
+      <c r="B79" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D79" s="6">
         <v>44591</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F79" s="8">
-        <v>44592</v>
+        <v>48</v>
+      </c>
+      <c r="F79" s="6">
+        <v>44639</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="34"/>
-      <c r="I79" s="10"/>
-    </row>
-    <row r="80" spans="2:9" ht="18.75">
-      <c r="B80" s="15" t="s">
-        <v>82</v>
+      <c r="H79" s="30"/>
+      <c r="I79" s="37"/>
+    </row>
+    <row r="80" spans="2:9" ht="37.5">
+      <c r="B80" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D80" s="6">
         <v>44591</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="16">
-        <v>44612</v>
-      </c>
+      <c r="E80" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F80" s="6"/>
       <c r="G80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="30"/>
+      <c r="I80" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="18.75">
+      <c r="B81" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F81" s="41"/>
+      <c r="G81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="30"/>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="2:9" ht="23.25">
+      <c r="B82" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E82" s="39">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F82" s="38">
+        <v>44620</v>
+      </c>
+      <c r="G82" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="35"/>
-      <c r="I80" s="17"/>
-    </row>
-    <row r="81" spans="2:9" ht="18.75">
-      <c r="B81" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="16">
-        <v>44613</v>
-      </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="17"/>
-    </row>
-    <row r="82" spans="2:9" ht="18.75">
-      <c r="B82" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="16">
-        <v>44640</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="17"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="10"/>
     </row>
     <row r="83" spans="2:9" ht="18.75">
-      <c r="B83" s="15" t="s">
-        <v>86</v>
+      <c r="B83" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D83" s="6">
         <v>44591</v>
       </c>
-      <c r="E83" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="9" t="s">
+      <c r="E83" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="38">
+        <v>44592</v>
+      </c>
+      <c r="G83" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="17"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="2:9" ht="18.75">
       <c r="B84" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D84" s="6">
         <v>44591</v>
       </c>
-      <c r="E84" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="9" t="s">
+      <c r="E84" s="39">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F84" s="38">
+        <v>44612</v>
+      </c>
+      <c r="G84" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="35"/>
-      <c r="I84" s="17"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="44"/>
     </row>
     <row r="85" spans="2:9" ht="18.75">
       <c r="B85" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E85" s="39">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F85" s="38">
+        <v>44613</v>
+      </c>
+      <c r="G85" s="43"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="44"/>
+    </row>
+    <row r="86" spans="2:9" ht="18.75">
+      <c r="B86" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E86" s="39">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F86" s="38">
+        <v>44640</v>
+      </c>
+      <c r="G86" s="43"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="44"/>
+    </row>
+    <row r="87" spans="2:9" ht="18.75">
+      <c r="B87" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E87" s="39">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="42"/>
+      <c r="I87" s="44"/>
+    </row>
+    <row r="88" spans="2:9" ht="18.75">
+      <c r="B88" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E88" s="39">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F88" s="38"/>
+      <c r="G88" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="42"/>
+      <c r="I88" s="44"/>
+    </row>
+    <row r="89" spans="2:9" ht="18.75">
+      <c r="B89" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E85" s="7">
+      <c r="D89" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E89" s="39">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="9" t="s">
+      <c r="F89" s="38"/>
+      <c r="G89" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="35"/>
-      <c r="I85" s="17"/>
-    </row>
-    <row r="86" spans="2:9" ht="37.5">
-      <c r="B86" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="H89" s="42"/>
+      <c r="I89" s="44"/>
+    </row>
+    <row r="90" spans="2:9" ht="37.5">
+      <c r="B90" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E86" s="7">
+      <c r="D90" s="41">
+        <v>44591</v>
+      </c>
+      <c r="E90" s="53">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="9" t="s">
+      <c r="F90" s="54"/>
+      <c r="G90" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="18.75">
-      <c r="B87" s="18"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E87" s="7">
+      <c r="H90" s="56"/>
+      <c r="I90" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="18.75">
+      <c r="B91" s="46"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="48">
+        <v>44591</v>
+      </c>
+      <c r="E91" s="49">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="9" t="s">
+      <c r="F91" s="47"/>
+      <c r="G91" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="20"/>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="45"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2576,7 +3062,7 @@
           <x14:formula1>
             <xm:f>'Háttér adatok'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C87</xm:sqref>
+          <xm:sqref>C2:C91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2604,7 +3090,7 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -2614,17 +3100,17 @@
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/EB_projekt_menet.xlsx
+++ b/EB_projekt_menet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plkik.sharepoint.com/sites/Esti_projektmunka_gyakorloter/Megosztott dokumentumok/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F698BC9-BE54-4A87-A5EB-F9267542A308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{074AB47C-0AA8-4ECD-BE9B-9B4991025080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="103">
   <si>
     <t>Projektmunka terv</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>session_start() function</t>
+  </si>
+  <si>
+    <t>nem regisztrált felhasználók oldalának elkészítése</t>
+  </si>
+  <si>
+    <t>nem regisztrált felhasználók keresési felülete</t>
   </si>
   <si>
     <t>4. adományozás és menhely infók</t>
@@ -1300,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E7F18-5A48-1C46-BD03-BEEDB5094022}">
-  <dimension ref="B1:I96"/>
+  <dimension ref="B1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1368,7 +1374,7 @@
         <v>44591</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E91" si="0">F3-D3</f>
+        <f t="shared" ref="E3:E93" si="0">F3-D3</f>
         <v>7</v>
       </c>
       <c r="F3" s="8">
@@ -2333,61 +2339,55 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B59" s="33" t="s">
+    <row r="59" spans="2:9" ht="18.75">
+      <c r="B59" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="30"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="2:9" ht="18.75">
+      <c r="B60" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="30"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B61" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="D61" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E61" s="22">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="24" t="s">
+      <c r="F61" s="27"/>
+      <c r="G61" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B60" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E60" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="30"/>
-      <c r="I60" s="25"/>
-    </row>
-    <row r="61" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B61" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E61" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="25"/>
@@ -2444,14 +2444,14 @@
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="25"/>
     </row>
     <row r="65" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B65" s="13" t="s">
-        <v>24</v>
+      <c r="B65" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="6">
@@ -2469,8 +2469,8 @@
       <c r="I65" s="25"/>
     </row>
     <row r="66" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B66" s="13" t="s">
-        <v>26</v>
+      <c r="B66" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="6">
@@ -2482,14 +2482,14 @@
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H66" s="30"/>
       <c r="I66" s="25"/>
     </row>
     <row r="67" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B67" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="6">
@@ -2506,104 +2506,95 @@
       <c r="H67" s="30"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75">
+    <row r="68" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B68" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C68" s="20"/>
       <c r="D68" s="6">
         <v>44591</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F68" s="8">
-        <v>44640</v>
-      </c>
+        <v>-44591</v>
+      </c>
+      <c r="F68" s="20"/>
       <c r="G68" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H68" s="30"/>
-      <c r="I68" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" s="26" customFormat="1" ht="23.25">
-      <c r="B69" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E69" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F69" s="23">
-        <v>44592</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="29"/>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B69" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F69" s="20"/>
+      <c r="G69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="30"/>
       <c r="I69" s="25"/>
     </row>
     <row r="70" spans="2:9" ht="18.75">
       <c r="B70" s="13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D70" s="6">
         <v>44591</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F70" s="6">
-        <v>44607</v>
+        <v>49</v>
+      </c>
+      <c r="F70" s="8">
+        <v>44640</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H70" s="30"/>
       <c r="I70" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="26" customFormat="1" ht="23.25">
+      <c r="B71" s="19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" ht="18.75">
-      <c r="B71" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E71" s="7">
-        <f>F71-D71</f>
-        <v>11</v>
-      </c>
-      <c r="F71" s="6">
-        <v>44602</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="30"/>
+      <c r="C71" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E71" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="23">
+        <v>44592</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="25"/>
     </row>
     <row r="72" spans="2:9" ht="18.75">
       <c r="B72" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>46</v>
@@ -2613,16 +2604,18 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F72" s="6">
-        <v>44612</v>
+        <v>44607</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H72" s="30"/>
-      <c r="I72" s="10"/>
+      <c r="I72" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73" spans="2:9" ht="18.75">
       <c r="B73" s="13" t="s">
@@ -2635,17 +2628,16 @@
         <v>44591</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>F73-D73</f>
+        <v>11</v>
       </c>
       <c r="F73" s="6">
-        <v>44640</v>
+        <v>44602</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="30"/>
-      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="2:9" ht="18.75">
       <c r="B74" s="13" t="s">
@@ -2659,10 +2651,10 @@
       </c>
       <c r="E74" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F74" s="6">
-        <v>44634</v>
+        <v>44612</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>14</v>
@@ -2682,10 +2674,10 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F75" s="6">
-        <v>44634</v>
+        <v>44640</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>14</v>
@@ -2705,10 +2697,10 @@
       </c>
       <c r="E76" s="7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="6">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>14</v>
@@ -2717,7 +2709,7 @@
       <c r="I76" s="10"/>
     </row>
     <row r="77" spans="2:9" ht="18.75">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2728,19 +2720,19 @@
       </c>
       <c r="E77" s="7">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F77" s="6">
-        <v>44638</v>
+        <v>44634</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="30"/>
-      <c r="I77" s="16"/>
-    </row>
-    <row r="78" spans="2:9" ht="21" customHeight="1">
-      <c r="B78" s="35" t="s">
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="2:9" ht="18.75">
+      <c r="B78" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -2751,22 +2743,20 @@
       </c>
       <c r="E78" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F78" s="6">
-        <v>44639</v>
+        <v>44633</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="30"/>
-      <c r="I78" s="36" t="s">
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="2:9" ht="18.75">
+      <c r="B79" s="35" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="18.75">
-      <c r="B79" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>46</v>
@@ -2776,64 +2766,68 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F79" s="6">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="30"/>
-      <c r="I79" s="37"/>
-    </row>
-    <row r="80" spans="2:9" ht="37.5">
-      <c r="B80" s="13" t="s">
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="2:9" ht="21" customHeight="1">
+      <c r="B80" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F80" s="6">
+        <v>44639</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="30"/>
+      <c r="I80" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E80" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="30"/>
-      <c r="I80" s="10" t="s">
+    </row>
+    <row r="81" spans="2:9" ht="18.75">
+      <c r="B81" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" ht="18.75">
-      <c r="B81" s="13" t="s">
+      <c r="C81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F81" s="6">
+        <v>44639</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="30"/>
+      <c r="I81" s="37"/>
+    </row>
+    <row r="82" spans="2:9" ht="37.5">
+      <c r="B82" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E81" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F81" s="41"/>
-      <c r="G81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="30"/>
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="2:9" ht="23.25">
-      <c r="B82" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>10</v>
@@ -2841,67 +2835,65 @@
       <c r="D82" s="6">
         <v>44591</v>
       </c>
-      <c r="E82" s="39">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F82" s="38">
-        <v>44620</v>
-      </c>
-      <c r="G82" s="40" t="s">
-        <v>14</v>
+      <c r="E82" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H82" s="30"/>
-      <c r="I82" s="10"/>
+      <c r="I82" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="83" spans="2:9" ht="18.75">
       <c r="B83" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D83" s="6">
         <v>44591</v>
       </c>
-      <c r="E83" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F83" s="38">
-        <v>44592</v>
-      </c>
-      <c r="G83" s="40" t="s">
+      <c r="E83" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F83" s="41"/>
+      <c r="G83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="30"/>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="2:9" ht="23.25">
+      <c r="B84" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E84" s="39">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F84" s="38">
+        <v>44620</v>
+      </c>
+      <c r="G84" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="31"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="2:9" ht="18.75">
-      <c r="B84" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E84" s="39">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F84" s="38">
-        <v>44612</v>
-      </c>
-      <c r="G84" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="42"/>
-      <c r="I84" s="44"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="2:9" ht="18.75">
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -2912,39 +2904,43 @@
       </c>
       <c r="E85" s="39">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F85" s="38">
-        <v>44613</v>
-      </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="44"/>
+        <v>44592</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="31"/>
+      <c r="I85" s="10"/>
     </row>
     <row r="86" spans="2:9" ht="18.75">
       <c r="B86" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D86" s="6">
         <v>44591</v>
       </c>
       <c r="E86" s="39">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F86" s="38">
-        <v>44640</v>
-      </c>
-      <c r="G86" s="43"/>
+        <v>44612</v>
+      </c>
+      <c r="G86" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H86" s="42"/>
       <c r="I86" s="44"/>
     </row>
     <row r="87" spans="2:9" ht="18.75">
       <c r="B87" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>46</v>
@@ -2954,33 +2950,33 @@
       </c>
       <c r="E87" s="39">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="43" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F87" s="38">
+        <v>44613</v>
+      </c>
+      <c r="G87" s="43"/>
       <c r="H87" s="42"/>
       <c r="I87" s="44"/>
     </row>
     <row r="88" spans="2:9" ht="18.75">
       <c r="B88" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D88" s="6">
         <v>44591</v>
       </c>
       <c r="E88" s="39">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F88" s="38"/>
-      <c r="G88" s="43" t="s">
-        <v>14</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F88" s="38">
+        <v>44640</v>
+      </c>
+      <c r="G88" s="43"/>
       <c r="H88" s="42"/>
       <c r="I88" s="44"/>
     </row>
@@ -2989,7 +2985,7 @@
         <v>96</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D89" s="6">
         <v>44591</v>
@@ -3005,53 +3001,95 @@
       <c r="H89" s="42"/>
       <c r="I89" s="44"/>
     </row>
-    <row r="90" spans="2:9" ht="37.5">
+    <row r="90" spans="2:9" ht="18.75">
       <c r="B90" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E90" s="39">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="42"/>
+      <c r="I90" s="44"/>
+    </row>
+    <row r="91" spans="2:9" ht="18.75">
+      <c r="B91" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="41">
-        <v>44591</v>
-      </c>
-      <c r="E90" s="53">
+      <c r="D91" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E91" s="39">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F90" s="54"/>
-      <c r="G90" s="55" t="s">
+      <c r="F91" s="38"/>
+      <c r="G91" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="56"/>
-      <c r="I90" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" ht="18.75">
-      <c r="B91" s="46"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="48">
-        <v>44591</v>
-      </c>
-      <c r="E91" s="49">
+      <c r="H91" s="42"/>
+      <c r="I91" s="44"/>
+    </row>
+    <row r="92" spans="2:9" ht="37.5">
+      <c r="B92" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="41">
+        <v>44591</v>
+      </c>
+      <c r="E92" s="53">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F91" s="47"/>
-      <c r="G91" s="50" t="s">
+      <c r="F92" s="54"/>
+      <c r="G92" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="51"/>
-      <c r="I91" s="45"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="18.75">
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="48">
+        <v>44591</v>
+      </c>
+      <c r="E93" s="49">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F93" s="47"/>
+      <c r="G93" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="51"/>
+      <c r="I93" s="45"/>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3062,7 +3100,7 @@
           <x14:formula1>
             <xm:f>'Háttér adatok'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C91</xm:sqref>
+          <xm:sqref>C2:C93</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3090,7 +3128,7 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3100,7 +3138,7 @@
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="3:3">
@@ -3110,7 +3148,7 @@
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/EB_projekt_menet.xlsx
+++ b/EB_projekt_menet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plkik.sharepoint.com/sites/Esti_projektmunka_gyakorloter/Megosztott dokumentumok/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{074AB47C-0AA8-4ECD-BE9B-9B4991025080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1A39C4-1086-48D0-A248-6DFB49309E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
   <si>
     <t>Projektmunka terv</t>
   </si>
@@ -98,7 +98,7 @@
     <t>BOOTSTRAP/HTML</t>
   </si>
   <si>
-    <t>animáció (kutya elhúzza a felületet)</t>
+    <t>animáció</t>
   </si>
   <si>
     <t>HTML</t>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Finish</t>
+  </si>
+  <si>
+    <t>jelszó titkosítás</t>
+  </si>
+  <si>
+    <t>megerősítő jelszó használata</t>
   </si>
   <si>
     <t xml:space="preserve">email küldés kialakítása </t>
@@ -236,10 +242,10 @@
     <t>session_start() function</t>
   </si>
   <si>
-    <t>nem regisztrált felhasználók oldalának elkészítése</t>
-  </si>
-  <si>
-    <t>nem regisztrált felhasználók keresési felülete</t>
+    <t>nem regisztrált felhasználók keresési felületének php kódja</t>
+  </si>
+  <si>
+    <t>nem regisztrált felhasználók keresési felületének formázása</t>
   </si>
   <si>
     <t>4. adományozás és menhely infók</t>
@@ -342,6 +348,72 @@
   </si>
   <si>
     <t>ha x napig inaktív egy kutya, akkor egyeztetni kell a menhellyel, hogy kezelje/törölje</t>
+  </si>
+  <si>
+    <t>kutyafotókat keresni a regisztrált kutyákhoz</t>
+  </si>
+  <si>
+    <t>adattisztítás - élethű adatok feltöltése</t>
+  </si>
+  <si>
+    <t>a teszteléskor felvitt rövidített/értelmetlen adatok felülírása</t>
+  </si>
+  <si>
+    <t>dokumentácio</t>
+  </si>
+  <si>
+    <t>teszteket csinálni</t>
+  </si>
+  <si>
+    <t>prezentációs ppt elkészítése</t>
+  </si>
+  <si>
+    <t>prezentáció szövege magyar/angol, ki mit mond és a bemutatók leírt szövege</t>
+  </si>
+  <si>
+    <t>adatbázisban a tartalmakat tisztázni, most csak teszt tartalom van még</t>
+  </si>
+  <si>
+    <t>szövegeket megírni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fotók feltöltése C# </t>
+  </si>
+  <si>
+    <t>fotók lekérdezése php</t>
+  </si>
+  <si>
+    <t>intro oldal a többihez csatolás</t>
+  </si>
+  <si>
+    <t>automatikus email</t>
+  </si>
+  <si>
+    <t>telepítő exe asztalihoz</t>
+  </si>
+  <si>
+    <t>login oldala formázás</t>
+  </si>
+  <si>
+    <t>login oldala php</t>
+  </si>
+  <si>
+    <t>nem regisztráltak kereső oldala formázás</t>
+  </si>
+  <si>
+    <t>formázások, navigáció</t>
+  </si>
+  <si>
+    <t>számlaszám és adószám forma</t>
+  </si>
+  <si>
+    <t>nem megy</t>
+  </si>
+  <si>
+    <t>username ellenörzés</t>
+  </si>
+  <si>
+    <t>session okat betenni a találati oldalba</t>
   </si>
   <si>
     <t>Plan</t>
@@ -358,7 +430,7 @@
     <numFmt numFmtId="164" formatCode="&quot;H-&quot;0000"/>
     <numFmt numFmtId="165" formatCode="0&quot; day&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +486,12 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -459,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -735,6 +813,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -742,8 +876,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,9 +888,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -769,22 +901,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -797,32 +914,28 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -929,68 +1042,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E7F18-5A48-1C46-BD03-BEEDB5094022}">
-  <dimension ref="B1:I98"/>
+  <dimension ref="B1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1374,7 +1506,7 @@
         <v>44591</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E93" si="0">F3-D3</f>
+        <f t="shared" ref="E3:E95" si="0">F3-D3</f>
         <v>7</v>
       </c>
       <c r="F3" s="8">
@@ -1496,7 +1628,9 @@
       <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -1512,7 +1646,9 @@
       <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1939,154 +2075,170 @@
       <c r="H35" s="29"/>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="2:9" ht="91.5" customHeight="1">
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B36" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D36" s="8">
+        <v>44646</v>
+      </c>
+      <c r="E36" s="7"/>
       <c r="F36" s="8">
-        <v>44635</v>
+        <v>44646</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B37" s="34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="18.75">
-      <c r="B37" s="13"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="8">
+        <v>44646</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="2:9" ht="18.75">
+      <c r="F37" s="8">
+        <v>44646</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="2:9" ht="91.5" customHeight="1">
       <c r="B38" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
+      <c r="C38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F38" s="8">
+        <v>44635</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="H38" s="30"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B39" s="13" t="s">
+      <c r="I38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E39" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F39" s="8">
-        <v>44620</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="39" spans="2:9" ht="18.75">
+      <c r="B39" s="13"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="30"/>
-      <c r="I39" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="2:9" ht="18.75">
       <c r="B40" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E40" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="G40" s="9"/>
       <c r="H40" s="30"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="2:9" ht="18.75">
+    <row r="41" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F41" s="8">
+        <v>44620</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="2:9" ht="18.75">
       <c r="B42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H42" s="30"/>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="2:9" ht="18.75">
       <c r="B43" s="13" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:9" ht="18.75">
-      <c r="B44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="H44" s="30"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" ht="18.75">
       <c r="B45" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -2099,105 +2251,93 @@
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:9" ht="18.75">
-      <c r="B46" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B46" s="13"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="G46" s="9"/>
       <c r="H46" s="30"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" ht="18.75">
-      <c r="B47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="H47" s="30"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B48" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E48" s="22">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F48" s="23">
-        <v>44620</v>
-      </c>
+    <row r="48" spans="2:9" ht="18.75">
+      <c r="B48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H48" s="30"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="2:9" ht="18.75">
-      <c r="B49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E49" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="G49" s="9"/>
       <c r="H49" s="30"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="2:9" ht="18.75">
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B50" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E50" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F50" s="8"/>
+      <c r="C50" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E50" s="22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F50" s="23">
+        <v>44620</v>
+      </c>
       <c r="G50" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H50" s="30"/>
-      <c r="I50" s="10"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="2:9" ht="18.75">
       <c r="B51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D51" s="6">
         <v>44591</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="F51" s="8">
+        <v>44620</v>
+      </c>
       <c r="G51" s="9" t="s">
         <v>11</v>
       </c>
@@ -2214,9 +2354,11 @@
       </c>
       <c r="E52" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F52" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="F52" s="8">
+        <v>44620</v>
+      </c>
       <c r="G52" s="9" t="s">
         <v>11</v>
       </c>
@@ -2225,7 +2367,7 @@
     </row>
     <row r="53" spans="2:9" ht="18.75">
       <c r="B53" s="13" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -2233,9 +2375,11 @@
       </c>
       <c r="E53" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F53" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F53" s="8">
+        <v>44620</v>
+      </c>
       <c r="G53" s="9" t="s">
         <v>11</v>
       </c>
@@ -2244,7 +2388,7 @@
     </row>
     <row r="54" spans="2:9" ht="18.75">
       <c r="B54" s="13" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6">
@@ -2252,9 +2396,11 @@
       </c>
       <c r="E54" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F54" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F54" s="8">
+        <v>44620</v>
+      </c>
       <c r="G54" s="9" t="s">
         <v>11</v>
       </c>
@@ -2263,7 +2409,7 @@
     </row>
     <row r="55" spans="2:9" ht="18.75">
       <c r="B55" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6">
@@ -2271,9 +2417,11 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F55" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F55" s="8">
+        <v>44620</v>
+      </c>
       <c r="G55" s="9" t="s">
         <v>11</v>
       </c>
@@ -2282,11 +2430,9 @@
     </row>
     <row r="56" spans="2:9" ht="18.75">
       <c r="B56" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="6">
         <v>44591</v>
       </c>
@@ -2294,25 +2440,28 @@
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H56" s="30"/>
-      <c r="I56" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="2:9" ht="18.75">
       <c r="B57" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D57" s="6">
         <v>44591</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="9" t="s">
         <v>11</v>
       </c>
@@ -2321,33 +2470,43 @@
     </row>
     <row r="58" spans="2:9" ht="18.75">
       <c r="B58" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D58" s="6">
         <v>44591</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F58" s="8">
+        <v>44640</v>
+      </c>
       <c r="G58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I58" s="10"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="59" spans="2:9" ht="18.75">
       <c r="B59" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D59" s="6">
         <v>44591</v>
       </c>
-      <c r="E59" s="7"/>
+      <c r="E59" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F59" s="14"/>
       <c r="G59" s="9" t="s">
         <v>11</v>
@@ -2357,75 +2516,85 @@
     </row>
     <row r="60" spans="2:9" ht="18.75">
       <c r="B60" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D60" s="6">
         <v>44591</v>
       </c>
-      <c r="E60" s="7"/>
+      <c r="E60" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F60" s="14"/>
       <c r="G60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="30"/>
+      <c r="H60" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B61" s="33" t="s">
+    <row r="61" spans="2:9" ht="18.75">
+      <c r="B61" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44646</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>44646</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="30"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="2:9" ht="18.75">
+      <c r="B62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E61" s="22">
+      <c r="D62" s="6">
+        <v>44646</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="30"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B63" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E63" s="22">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="24" t="s">
+      <c r="F63" s="27"/>
+      <c r="G63" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="25"/>
-    </row>
-    <row r="62" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B62" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E62" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B63" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E63" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="H63" s="30"/>
       <c r="I63" s="25"/>
@@ -2482,14 +2651,14 @@
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H66" s="30"/>
       <c r="I66" s="25"/>
     </row>
     <row r="67" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B67" s="13" t="s">
-        <v>24</v>
+      <c r="B67" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="6">
@@ -2507,8 +2676,8 @@
       <c r="I67" s="25"/>
     </row>
     <row r="68" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B68" s="13" t="s">
-        <v>26</v>
+      <c r="B68" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="6">
@@ -2520,14 +2689,14 @@
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H68" s="30"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B69" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="6">
@@ -2544,104 +2713,95 @@
       <c r="H69" s="30"/>
       <c r="I69" s="25"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75">
+    <row r="70" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B70" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C70" s="20"/>
       <c r="D70" s="6">
         <v>44591</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F70" s="8">
-        <v>44640</v>
-      </c>
+        <v>-44591</v>
+      </c>
+      <c r="F70" s="20"/>
       <c r="G70" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H70" s="30"/>
-      <c r="I70" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" s="26" customFormat="1" ht="23.25">
-      <c r="B71" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E71" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F71" s="23">
-        <v>44592</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="29"/>
+      <c r="I70" s="25"/>
+    </row>
+    <row r="71" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B71" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="30"/>
       <c r="I71" s="25"/>
     </row>
     <row r="72" spans="2:9" ht="18.75">
       <c r="B72" s="13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D72" s="6">
         <v>44591</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F72" s="6">
-        <v>44607</v>
+        <v>49</v>
+      </c>
+      <c r="F72" s="8">
+        <v>44640</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="26" customFormat="1" ht="23.25">
+      <c r="B73" s="19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" ht="18.75">
-      <c r="B73" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E73" s="7">
-        <f>F73-D73</f>
-        <v>11</v>
-      </c>
-      <c r="F73" s="6">
-        <v>44602</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="30"/>
+      <c r="C73" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E73" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="23">
+        <v>44592</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="25"/>
     </row>
     <row r="74" spans="2:9" ht="18.75">
       <c r="B74" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>46</v>
@@ -2651,16 +2811,18 @@
       </c>
       <c r="E74" s="7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F74" s="6">
-        <v>44612</v>
+        <v>44607</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H74" s="30"/>
-      <c r="I74" s="10"/>
+      <c r="I74" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="75" spans="2:9" ht="18.75">
       <c r="B75" s="13" t="s">
@@ -2673,17 +2835,16 @@
         <v>44591</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>F75-D75</f>
+        <v>11</v>
       </c>
       <c r="F75" s="6">
-        <v>44640</v>
+        <v>44602</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="30"/>
-      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="2:9" ht="18.75">
       <c r="B76" s="13" t="s">
@@ -2697,10 +2858,10 @@
       </c>
       <c r="E76" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F76" s="6">
-        <v>44634</v>
+        <v>44612</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>14</v>
@@ -2720,10 +2881,10 @@
       </c>
       <c r="E77" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F77" s="6">
-        <v>44634</v>
+        <v>44640</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>14</v>
@@ -2743,10 +2904,10 @@
       </c>
       <c r="E78" s="7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F78" s="6">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>14</v>
@@ -2755,7 +2916,7 @@
       <c r="I78" s="10"/>
     </row>
     <row r="79" spans="2:9" ht="18.75">
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2766,19 +2927,19 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F79" s="6">
-        <v>44638</v>
+        <v>44634</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="30"/>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" spans="2:9" ht="21" customHeight="1">
-      <c r="B80" s="35" t="s">
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="2:9" ht="18.75">
+      <c r="B80" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -2789,22 +2950,20 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F80" s="6">
-        <v>44639</v>
+        <v>44633</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="30"/>
-      <c r="I80" s="36" t="s">
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="2:9" ht="18.75">
+      <c r="B81" s="35" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="18.75">
-      <c r="B81" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>46</v>
@@ -2814,64 +2973,68 @@
       </c>
       <c r="E81" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F81" s="6">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="30"/>
-      <c r="I81" s="37"/>
-    </row>
-    <row r="82" spans="2:9" ht="37.5">
-      <c r="B82" s="13" t="s">
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" spans="2:9" ht="21" customHeight="1">
+      <c r="B82" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F82" s="6">
+        <v>44639</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="30"/>
+      <c r="I82" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E82" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="30"/>
-      <c r="I82" s="10" t="s">
+    </row>
+    <row r="83" spans="2:9" ht="18.75">
+      <c r="B83" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" ht="18.75">
-      <c r="B83" s="13" t="s">
+      <c r="C83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F83" s="6">
+        <v>44639</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="30"/>
+      <c r="I83" s="63"/>
+    </row>
+    <row r="84" spans="2:9" ht="37.5">
+      <c r="B84" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E83" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F83" s="41"/>
-      <c r="G83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="30"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="2:9" ht="23.25">
-      <c r="B84" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>10</v>
@@ -2879,67 +3042,65 @@
       <c r="D84" s="6">
         <v>44591</v>
       </c>
-      <c r="E84" s="39">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F84" s="38">
-        <v>44620</v>
-      </c>
-      <c r="G84" s="40" t="s">
-        <v>14</v>
+      <c r="E84" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H84" s="30"/>
-      <c r="I84" s="10"/>
+      <c r="I84" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="85" spans="2:9" ht="18.75">
       <c r="B85" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D85" s="6">
         <v>44591</v>
       </c>
-      <c r="E85" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F85" s="38">
-        <v>44592</v>
-      </c>
-      <c r="G85" s="40" t="s">
+      <c r="E85" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F85" s="39"/>
+      <c r="G85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="30"/>
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="2:9" ht="23.25">
+      <c r="B86" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E86" s="37">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F86" s="36">
+        <v>44620</v>
+      </c>
+      <c r="G86" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="31"/>
-      <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="2:9" ht="18.75">
-      <c r="B86" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E86" s="39">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F86" s="38">
-        <v>44612</v>
-      </c>
-      <c r="G86" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="42"/>
-      <c r="I86" s="44"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="2:9" ht="18.75">
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -2948,41 +3109,45 @@
       <c r="D87" s="6">
         <v>44591</v>
       </c>
-      <c r="E87" s="39">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F87" s="38">
-        <v>44613</v>
-      </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="44"/>
+      <c r="E87" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="36">
+        <v>44592</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="31"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="2:9" ht="18.75">
       <c r="B88" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D88" s="6">
         <v>44591</v>
       </c>
-      <c r="E88" s="39">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F88" s="38">
-        <v>44640</v>
-      </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="44"/>
+      <c r="E88" s="37">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F88" s="36">
+        <v>44612</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="40"/>
+      <c r="I88" s="42"/>
     </row>
     <row r="89" spans="2:9" ht="18.75">
       <c r="B89" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>46</v>
@@ -2990,106 +3155,327 @@
       <c r="D89" s="6">
         <v>44591</v>
       </c>
-      <c r="E89" s="39">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F89" s="38"/>
-      <c r="G89" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="42"/>
-      <c r="I89" s="44"/>
+      <c r="E89" s="37">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F89" s="36">
+        <v>44613</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="42"/>
     </row>
     <row r="90" spans="2:9" ht="18.75">
       <c r="B90" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D90" s="6">
         <v>44591</v>
       </c>
-      <c r="E90" s="39">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F90" s="38"/>
-      <c r="G90" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="42"/>
-      <c r="I90" s="44"/>
+      <c r="E90" s="37">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F90" s="36">
+        <v>44640</v>
+      </c>
+      <c r="G90" s="41"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="42"/>
     </row>
     <row r="91" spans="2:9" ht="18.75">
       <c r="B91" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D91" s="6">
         <v>44591</v>
       </c>
-      <c r="E91" s="39">
+      <c r="E91" s="37">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F91" s="38"/>
-      <c r="G91" s="43" t="s">
+      <c r="F91" s="36"/>
+      <c r="G91" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="42"/>
-      <c r="I91" s="44"/>
-    </row>
-    <row r="92" spans="2:9" ht="37.5">
+      <c r="H91" s="40"/>
+      <c r="I91" s="42"/>
+    </row>
+    <row r="92" spans="2:9" ht="18.75">
       <c r="B92" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E92" s="37">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F92" s="36"/>
+      <c r="G92" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="40"/>
+      <c r="I92" s="42"/>
+    </row>
+    <row r="93" spans="2:9" ht="18.75">
+      <c r="B93" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="41">
-        <v>44591</v>
-      </c>
-      <c r="E92" s="53">
+      <c r="D93" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E93" s="37">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F92" s="54"/>
-      <c r="G92" s="55" t="s">
+      <c r="F93" s="36"/>
+      <c r="G93" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="56"/>
-      <c r="I92" s="44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="18.75">
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="48">
-        <v>44591</v>
-      </c>
-      <c r="E93" s="49">
+      <c r="H93" s="40"/>
+      <c r="I93" s="42"/>
+    </row>
+    <row r="94" spans="2:9" ht="37.5">
+      <c r="B94" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="39">
+        <v>44591</v>
+      </c>
+      <c r="E94" s="44">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F93" s="47"/>
-      <c r="G93" s="50" t="s">
+      <c r="F94" s="45"/>
+      <c r="G94" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="51"/>
-      <c r="I93" s="45"/>
-    </row>
-    <row r="98" spans="4:5">
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="18.75">
+      <c r="B95" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="53">
+        <v>44591</v>
+      </c>
+      <c r="E95" s="54">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F95" s="52"/>
+      <c r="G95" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="40"/>
+      <c r="I95" s="56"/>
+    </row>
+    <row r="96" spans="2:9" ht="18.75">
+      <c r="B96" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="53">
+        <v>44591</v>
+      </c>
+      <c r="E96" s="54"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="59"/>
+      <c r="I96" s="60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="18.75">
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="54">
+        <f t="shared" ref="E97" si="1">F97-D97</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="50"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="16.5">
+      <c r="B100" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="16.5">
+      <c r="B102" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="2:9" ht="16.5">
+      <c r="B103" s="61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="16.5">
+      <c r="B104" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="16.5">
+      <c r="B105" s="61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="16.5">
+      <c r="B106" s="61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="16.5">
+      <c r="B109" s="61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="16.5">
+      <c r="B110" s="61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="16.5">
+      <c r="B111" s="61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="16.5">
+      <c r="B112" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="16.5">
+      <c r="B113" s="61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="16.5">
+      <c r="B114" s="61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="16.5">
+      <c r="B117" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="16.5">
+      <c r="B119" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:3" ht="16.5">
+      <c r="B121" s="61"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:3" ht="16.5">
+      <c r="B124" s="61"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:3" ht="16.5">
+      <c r="B127" s="61"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" ht="16.5">
+      <c r="B130" s="61"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" ht="16.5">
+      <c r="B133" s="61"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2" ht="16.5">
+      <c r="B136" s="61"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2" ht="16.5">
+      <c r="B139" s="61"/>
+    </row>
+    <row r="140" spans="2:2" ht="16.5">
+      <c r="B140" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I82:I83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3100,7 +3486,7 @@
           <x14:formula1>
             <xm:f>'Háttér adatok'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C93</xm:sqref>
+          <xm:sqref>C2:C97</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3128,7 +3514,7 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3138,7 +3524,7 @@
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="3:3">
@@ -3148,7 +3534,7 @@
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3157,12 +3543,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101007A98BF91376B2A41B363E000FACEDFA6" ma:contentTypeVersion="6" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="96e582282c6c8542bf9f00dcb2e962c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4596683d-58ad-46fd-a469-067e8bda3699" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49e95775c3edf2a82b9ab9732d4c1ca2" ns2:_="">
     <xsd:import namespace="4596683d-58ad-46fd-a469-067e8bda3699"/>
@@ -3320,23 +3715,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D4377A-D3DC-4408-8635-1B2609FA26E3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}"/>
 </file>
--- a/EB_projekt_menet.xlsx
+++ b/EB_projekt_menet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plkik.sharepoint.com/sites/Esti_projektmunka_gyakorloter/Megosztott dokumentumok/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1A39C4-1086-48D0-A248-6DFB49309E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9A4162-E207-4AFE-8F63-F38FB4D91DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" firstSheet="1" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektlap" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="193">
   <si>
     <t>Projektmunka terv</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>megerősítő jelszó használata</t>
+  </si>
+  <si>
+    <t>login php</t>
   </si>
   <si>
     <t xml:space="preserve">email küldés kialakítása </t>
@@ -230,7 +233,13 @@
     <t>adatok lekérdezéséhez php kód elkészítése</t>
   </si>
   <si>
-    <t xml:space="preserve">kell még a nem lenyíló mezők adatain túli infok megjelenítése </t>
+    <t>kell még a nem lenyíló mezők adatain túli infok megjelenítése -már ok</t>
+  </si>
+  <si>
+    <t>adatok lekérdezéséhez php kód kép megjelenítésére</t>
+  </si>
+  <si>
+    <t>adatok lekérdezéséhez php kód elkészítése nem regisztrált felhasználók</t>
   </si>
   <si>
     <t>eredmény formázása</t>
@@ -290,12 +299,18 @@
     <t>bejelentkezés</t>
   </si>
   <si>
+    <t>bejelentkezés titikosított jelszóval is</t>
+  </si>
+  <si>
     <t>sikeres bejelentkezésre plusz mezők töltése adatbázisból</t>
   </si>
   <si>
     <t>képek feltöltése</t>
   </si>
   <si>
+    <t>új módszer kell - ok</t>
+  </si>
+  <si>
     <t>adatkarbantartás programozása (lekérdez gomb)</t>
   </si>
   <si>
@@ -362,7 +377,7 @@
     <t>dokumentácio</t>
   </si>
   <si>
-    <t>teszteket csinálni</t>
+    <t>teszteléseket csinálni</t>
   </si>
   <si>
     <t>prezentációs ppt elkészítése</t>
@@ -377,49 +392,232 @@
     <t>szövegeket megírni</t>
   </si>
   <si>
+    <t>kosár</t>
+  </si>
+  <si>
+    <t>intro oldal a többihez csatolás</t>
+  </si>
+  <si>
+    <t>automatikus email</t>
+  </si>
+  <si>
+    <t>telepítő exe asztalihoz</t>
+  </si>
+  <si>
+    <t>login oldala formázás</t>
+  </si>
+  <si>
+    <t>login oldala php -&gt; profil oldalra ugrás</t>
+  </si>
+  <si>
+    <t>nem regisztráltak kereső oldala formázás</t>
+  </si>
+  <si>
+    <t>formázások, navigáció</t>
+  </si>
+  <si>
+    <t>számlaszám és adószám forma</t>
+  </si>
+  <si>
+    <t>nem megy</t>
+  </si>
+  <si>
+    <t>username ellenörzés</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>session okat betenni a találati oldalba</t>
+  </si>
+  <si>
     <t xml:space="preserve">fotók feltöltése C# </t>
   </si>
   <si>
     <t>fotók lekérdezése php</t>
   </si>
   <si>
-    <t>intro oldal a többihez csatolás</t>
-  </si>
-  <si>
-    <t>automatikus email</t>
-  </si>
-  <si>
-    <t>telepítő exe asztalihoz</t>
-  </si>
-  <si>
-    <t>login oldala formázás</t>
-  </si>
-  <si>
-    <t>login oldala php</t>
-  </si>
-  <si>
-    <t>nem regisztráltak kereső oldala formázás</t>
-  </si>
-  <si>
-    <t>formázások, navigáció</t>
-  </si>
-  <si>
-    <t>számlaszám és adószám forma</t>
-  </si>
-  <si>
-    <t>nem megy</t>
-  </si>
-  <si>
-    <t>username ellenörzés</t>
-  </si>
-  <si>
-    <t>session okat betenni a találati oldalba</t>
-  </si>
-  <si>
     <t>Plan</t>
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Ferkó</t>
+  </si>
+  <si>
+    <t>kölyök</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hrMzffH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idős</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jnQdWMp.png</t>
+  </si>
+  <si>
+    <t>felnőtt</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dIL1C47.png</t>
+  </si>
+  <si>
+    <t>fiatal</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2FNTYRE.png</t>
+  </si>
+  <si>
+    <t>kicsi</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AexkeG2.png</t>
+  </si>
+  <si>
+    <t>rövid</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Y2hCqCW.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bo2rMRW.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/e2QRgvD.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7xhPlft.png</t>
+  </si>
+  <si>
+    <t>közepes</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DlfNAdM.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/I6pBJEc.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lhnIO2V.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RUBzGRF.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/A7dT1nx.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Oo72Rri.png</t>
+  </si>
+  <si>
+    <t>nagy</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qcG8K1A.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fpPoTWY.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nvTbhMY.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6gr9gBY.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZmRskHf.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GZJkmki.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iQttLs3.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/adWZ0Md.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9WbrV4U.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Q2xO3yq.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hES3o8L.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uqIwbrf.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qOcohbk.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6NzurC4.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/V2zq4dF.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YuT7vsS.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8K2F1B6.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H2CK4jU.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uGIKv4C.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mWxexQw.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sot1wKy.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/h7QW5km.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TzOOYRY.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vsjlxdu.png</t>
+  </si>
+  <si>
+    <t>hosszú</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pPzSjik.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RxXv9Vj.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9jks8kH.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7gZrL90.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6CuKfbT.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wvRcyTj.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jo91RTh.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WVZ2g6T.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NjMgb4i.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/eWm0GI7.png</t>
   </si>
 </sst>
 </file>
@@ -430,7 +628,7 @@
     <numFmt numFmtId="164" formatCode="&quot;H-&quot;0000"/>
     <numFmt numFmtId="165" formatCode="0&quot; day&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,6 +690,15 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -537,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -931,11 +1138,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -1118,6 +1350,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1125,7 +1362,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1438,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E7F18-5A48-1C46-BD03-BEEDB5094022}">
-  <dimension ref="B1:I140"/>
+  <dimension ref="B1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1453,7 +1691,7 @@
     <col min="6" max="6" width="19.875" style="11" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="11" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="64.875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="67.75" style="11" customWidth="1"/>
     <col min="10" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
@@ -1506,7 +1744,7 @@
         <v>44591</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E95" si="0">F3-D3</f>
+        <f t="shared" ref="E3:E99" si="0">F3-D3</f>
         <v>7</v>
       </c>
       <c r="F3" s="8">
@@ -2115,45 +2353,53 @@
       <c r="H37" s="29"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="2:9" ht="91.5" customHeight="1">
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B38" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="8">
+        <v>44646</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8">
+        <v>44650</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="2:9" ht="91.5" customHeight="1">
+      <c r="B39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="D39" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E39" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>44635</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="18.75">
-      <c r="B39" s="13"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
       <c r="H39" s="30"/>
-      <c r="I39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="18.75">
-      <c r="B40" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -2162,34 +2408,21 @@
       <c r="H40" s="30"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="2:9" s="26" customFormat="1" ht="18.75">
+    <row r="41" spans="2:9" ht="18.75">
       <c r="B41" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F41" s="8">
-        <v>44620</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="30"/>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B42" s="13" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="18.75">
-      <c r="B42" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>10</v>
@@ -2199,22 +2432,33 @@
       </c>
       <c r="E42" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F42" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="F42" s="8">
+        <v>44620</v>
+      </c>
       <c r="G42" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H42" s="30"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="18.75">
       <c r="B43" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
       <c r="F43" s="8"/>
       <c r="G43" s="9" t="s">
         <v>14</v>
@@ -2231,14 +2475,14 @@
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
       <c r="G44" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H44" s="30"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" ht="18.75">
       <c r="B45" s="13" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -2251,32 +2495,32 @@
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:9" ht="18.75">
-      <c r="B46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="H46" s="30"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" ht="18.75">
-      <c r="B47" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="G47" s="9"/>
       <c r="H47" s="30"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" ht="18.75">
       <c r="B48" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -2289,66 +2533,59 @@
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="2:9" ht="18.75">
-      <c r="B49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="H49" s="30"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B50" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="20" t="s">
+    <row r="50" spans="2:9" ht="18.75">
+      <c r="B50" s="13"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B51" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E50" s="22">
+      <c r="D51" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E51" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F51" s="23">
         <v>44620</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="2:9" ht="18.75">
-      <c r="B51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E51" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F51" s="8">
-        <v>44620</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H51" s="30"/>
-      <c r="I51" s="10"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="2:9" ht="18.75">
       <c r="B52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D52" s="6">
         <v>44591</v>
       </c>
@@ -2409,7 +2646,7 @@
     </row>
     <row r="55" spans="2:9" ht="18.75">
       <c r="B55" s="13" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6">
@@ -2430,7 +2667,7 @@
     </row>
     <row r="56" spans="2:9" ht="18.75">
       <c r="B56" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -2438,9 +2675,11 @@
       </c>
       <c r="E56" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F56" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="F56" s="8">
+        <v>44620</v>
+      </c>
       <c r="G56" s="9" t="s">
         <v>11</v>
       </c>
@@ -2449,11 +2688,9 @@
     </row>
     <row r="57" spans="2:9" ht="18.75">
       <c r="B57" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="6">
         <v>44591</v>
       </c>
@@ -2470,89 +2707,87 @@
     </row>
     <row r="58" spans="2:9" ht="18.75">
       <c r="B58" s="13" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="30"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B59" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="D59" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E59" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="8">
         <v>44640</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="18.75">
-      <c r="B59" s="13" t="s">
+      <c r="H59" s="30"/>
+      <c r="I59" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E59" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="2:9" ht="18.75">
+    </row>
+    <row r="60" spans="2:9" ht="21.75" customHeight="1">
       <c r="B60" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="6">
-        <v>44591</v>
+      <c r="D60" s="8">
+        <v>44640</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F60" s="14"/>
+        <v>-44640</v>
+      </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="H60" s="30"/>
       <c r="I60" s="10"/>
     </row>
     <row r="61" spans="2:9" ht="18.75">
       <c r="B61" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="6">
-        <v>44646</v>
+      <c r="D61" s="8">
+        <v>44640</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="6">
-        <v>44646</v>
+        <v>8</v>
+      </c>
+      <c r="F61" s="8">
+        <v>44648</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>14</v>
@@ -2562,96 +2797,106 @@
     </row>
     <row r="62" spans="2:9" ht="18.75">
       <c r="B62" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="6">
-        <v>44646</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
+        <v>44591</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F62" s="14"/>
       <c r="G62" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="30"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B63" s="33" t="s">
+    <row r="63" spans="2:9" ht="18.75">
+      <c r="B63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="2:9" ht="18.75">
+      <c r="B64" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="6">
+        <v>44646</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>44646</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="30"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="2:9" ht="18.75">
+      <c r="B65" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E63" s="22">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B64" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E64" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="30"/>
-      <c r="I64" s="25"/>
-    </row>
-    <row r="65" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B65" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="20"/>
       <c r="D65" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E65" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F65" s="20"/>
+        <v>44646</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H65" s="30"/>
-      <c r="I65" s="25"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="C66" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E66" s="22">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="9" t="s">
-        <v>11</v>
+      <c r="F66" s="27"/>
+      <c r="G66" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="H66" s="30"/>
       <c r="I66" s="25"/>
@@ -2689,14 +2934,14 @@
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H68" s="30"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B69" s="13" t="s">
-        <v>24</v>
+      <c r="B69" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="6">
@@ -2714,8 +2959,8 @@
       <c r="I69" s="25"/>
     </row>
     <row r="70" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B70" s="13" t="s">
-        <v>26</v>
+      <c r="B70" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="6">
@@ -2733,8 +2978,8 @@
       <c r="I70" s="25"/>
     </row>
     <row r="71" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B71" s="13" t="s">
-        <v>28</v>
+      <c r="B71" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="6">
@@ -2746,132 +2991,119 @@
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H71" s="30"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75">
+    <row r="72" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B72" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C72" s="20"/>
       <c r="D72" s="6">
         <v>44591</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F72" s="8">
-        <v>44640</v>
-      </c>
+        <v>-44591</v>
+      </c>
+      <c r="F72" s="20"/>
       <c r="G72" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H72" s="30"/>
-      <c r="I72" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" s="26" customFormat="1" ht="23.25">
-      <c r="B73" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E73" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F73" s="23">
-        <v>44592</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="29"/>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B73" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="30"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75">
+    <row r="74" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B74" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C74" s="20"/>
       <c r="D74" s="6">
         <v>44591</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F74" s="6">
-        <v>44607</v>
-      </c>
+        <v>-44591</v>
+      </c>
+      <c r="F74" s="20"/>
       <c r="G74" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H74" s="30"/>
-      <c r="I74" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="I74" s="25"/>
     </row>
     <row r="75" spans="2:9" ht="18.75">
       <c r="B75" s="13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D75" s="6">
         <v>44591</v>
       </c>
       <c r="E75" s="7">
-        <f>F75-D75</f>
-        <v>11</v>
-      </c>
-      <c r="F75" s="6">
-        <v>44602</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F75" s="8">
+        <v>44640</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="30"/>
-    </row>
-    <row r="76" spans="2:9" ht="18.75">
-      <c r="B76" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E76" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F76" s="6">
-        <v>44612</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="30"/>
-      <c r="I76" s="10"/>
+      <c r="I75" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" s="26" customFormat="1" ht="23.25">
+      <c r="B76" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E76" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="23">
+        <v>44592</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="29"/>
+      <c r="I76" s="25"/>
     </row>
     <row r="77" spans="2:9" ht="18.75">
       <c r="B77" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>46</v>
@@ -2881,16 +3113,18 @@
       </c>
       <c r="E77" s="7">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F77" s="6">
-        <v>44640</v>
+        <v>44607</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H77" s="30"/>
-      <c r="I77" s="10"/>
+      <c r="I77" s="10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="78" spans="2:9" ht="18.75">
       <c r="B78" s="13" t="s">
@@ -2903,17 +3137,16 @@
         <v>44591</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>F78-D78</f>
+        <v>11</v>
       </c>
       <c r="F78" s="6">
-        <v>44634</v>
+        <v>44602</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="30"/>
-      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="2:9" ht="18.75">
       <c r="B79" s="13" t="s">
@@ -2927,10 +3160,10 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F79" s="6">
-        <v>44634</v>
+        <v>44612</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>14</v>
@@ -2950,10 +3183,10 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F80" s="6">
-        <v>44633</v>
+        <v>44640</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>14</v>
@@ -2962,7 +3195,7 @@
       <c r="I80" s="10"/>
     </row>
     <row r="81" spans="2:9" ht="18.75">
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -2973,45 +3206,43 @@
       </c>
       <c r="E81" s="7">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F81" s="6">
-        <v>44638</v>
+        <v>44634</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="30"/>
-      <c r="I81" s="16"/>
-    </row>
-    <row r="82" spans="2:9" ht="21" customHeight="1">
-      <c r="B82" s="35" t="s">
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="2:9" ht="18.75">
+      <c r="B82" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D82" s="6">
-        <v>44591</v>
+        <v>44634</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F82" s="6">
-        <v>44639</v>
+        <v>44657</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H82" s="30"/>
-      <c r="I82" s="62" t="s">
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="2:9" ht="18.75">
+      <c r="B83" s="13" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="18.75">
-      <c r="B83" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>46</v>
@@ -3021,86 +3252,92 @@
       </c>
       <c r="E83" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F83" s="6">
-        <v>44639</v>
+        <v>44634</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="30"/>
-      <c r="I83" s="63"/>
-    </row>
-    <row r="84" spans="2:9" ht="37.5">
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="2:9" ht="18.75">
       <c r="B84" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D84" s="6">
-        <v>44591</v>
+        <v>44633</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F84" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="F84" s="6">
+        <v>44657</v>
+      </c>
       <c r="G84" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H84" s="30"/>
       <c r="I84" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="18.75">
+      <c r="B85" s="35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" ht="18.75">
-      <c r="B85" s="13" t="s">
+      <c r="C85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F85" s="6">
+        <v>44638</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="30"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="2:9" ht="21" customHeight="1">
+      <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E85" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="30"/>
-      <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="2:9" ht="23.25">
-      <c r="B86" s="18" t="s">
+      <c r="C86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F86" s="6">
+        <v>44639</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="30"/>
+      <c r="I86" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E86" s="37">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F86" s="36">
-        <v>44620</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="30"/>
-      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="2:9" ht="18.75">
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -3109,86 +3346,88 @@
       <c r="D87" s="6">
         <v>44591</v>
       </c>
-      <c r="E87" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F87" s="36">
-        <v>44592</v>
-      </c>
-      <c r="G87" s="38" t="s">
+      <c r="E87" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F87" s="6">
+        <v>44639</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="31"/>
-      <c r="I87" s="10"/>
-    </row>
-    <row r="88" spans="2:9" ht="18.75">
-      <c r="B88" s="15" t="s">
+      <c r="H87" s="30"/>
+      <c r="I87" s="68"/>
+    </row>
+    <row r="88" spans="2:9" ht="37.5">
+      <c r="B88" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D88" s="6">
         <v>44591</v>
       </c>
-      <c r="E88" s="37">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F88" s="36">
-        <v>44612</v>
-      </c>
-      <c r="G88" s="41" t="s">
+      <c r="E88" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="30"/>
+      <c r="I88" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="18.75">
+      <c r="B89" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F89" s="39"/>
+      <c r="G89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="30"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="2:9" ht="23.25">
+      <c r="B90" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E90" s="37">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F90" s="36">
+        <v>44620</v>
+      </c>
+      <c r="G90" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="40"/>
-      <c r="I88" s="42"/>
-    </row>
-    <row r="89" spans="2:9" ht="18.75">
-      <c r="B89" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E89" s="37">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F89" s="36">
-        <v>44613</v>
-      </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="42"/>
-    </row>
-    <row r="90" spans="2:9" ht="18.75">
-      <c r="B90" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E90" s="37">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F90" s="36">
-        <v>44640</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="42"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="10"/>
     </row>
     <row r="91" spans="2:9" ht="18.75">
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -3199,14 +3438,16 @@
       </c>
       <c r="E91" s="37">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F91" s="36"/>
-      <c r="G91" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="36">
+        <v>44592</v>
+      </c>
+      <c r="G91" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="40"/>
-      <c r="I91" s="42"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="2:9" ht="18.75">
       <c r="B92" s="15" t="s">
@@ -3220,9 +3461,11 @@
       </c>
       <c r="E92" s="37">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F92" s="36"/>
+        <v>21</v>
+      </c>
+      <c r="F92" s="36">
+        <v>44612</v>
+      </c>
       <c r="G92" s="41" t="s">
         <v>14</v>
       </c>
@@ -3234,153 +3477,212 @@
         <v>100</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D93" s="6">
         <v>44591</v>
       </c>
       <c r="E93" s="37">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F93" s="36"/>
-      <c r="G93" s="41" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F93" s="36">
+        <v>44613</v>
+      </c>
+      <c r="G93" s="41"/>
       <c r="H93" s="40"/>
       <c r="I93" s="42"/>
     </row>
-    <row r="94" spans="2:9" ht="37.5">
+    <row r="94" spans="2:9" ht="18.75">
       <c r="B94" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E94" s="37">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F94" s="36">
+        <v>44640</v>
+      </c>
+      <c r="G94" s="41"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="42"/>
+    </row>
+    <row r="95" spans="2:9" ht="18.75">
+      <c r="B95" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E95" s="37">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F95" s="36"/>
+      <c r="G95" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="40"/>
+      <c r="I95" s="42"/>
+    </row>
+    <row r="96" spans="2:9" ht="18.75">
+      <c r="B96" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E96" s="37">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F96" s="36"/>
+      <c r="G96" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="40"/>
+      <c r="I96" s="42"/>
+    </row>
+    <row r="97" spans="2:9" ht="18.75">
+      <c r="B97" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="39">
-        <v>44591</v>
-      </c>
-      <c r="E94" s="44">
+      <c r="D97" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E97" s="37">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="46" t="s">
+      <c r="F97" s="36"/>
+      <c r="G97" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="47"/>
-      <c r="I94" s="42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" ht="18.75">
-      <c r="B95" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="52" t="s">
+      <c r="H97" s="40"/>
+      <c r="I97" s="42"/>
+    </row>
+    <row r="98" spans="2:9" ht="37.5">
+      <c r="B98" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="53">
-        <v>44591</v>
-      </c>
-      <c r="E95" s="54">
+      <c r="D98" s="39">
+        <v>44591</v>
+      </c>
+      <c r="E98" s="44">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F95" s="52"/>
-      <c r="G95" s="55" t="s">
+      <c r="F98" s="45"/>
+      <c r="G98" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="40"/>
-      <c r="I95" s="56"/>
-    </row>
-    <row r="96" spans="2:9" ht="18.75">
-      <c r="B96" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="58" t="s">
+      <c r="H98" s="47"/>
+      <c r="I98" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="18.75">
+      <c r="B99" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="53">
-        <v>44591</v>
-      </c>
-      <c r="E96" s="54"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="9" t="s">
+      <c r="D99" s="53">
+        <v>44591</v>
+      </c>
+      <c r="E99" s="54">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F99" s="52"/>
+      <c r="G99" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="40"/>
+      <c r="I99" s="56"/>
+    </row>
+    <row r="100" spans="2:9" ht="18.75">
+      <c r="B100" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="53">
+        <v>44591</v>
+      </c>
+      <c r="E100" s="54"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="59"/>
-      <c r="I96" s="60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="18.75">
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="54">
-        <f t="shared" ref="E97" si="1">F97-D97</f>
+      <c r="H100" s="59"/>
+      <c r="I100" s="60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="18.75">
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="54">
+        <f t="shared" ref="E101" si="1">F101-D101</f>
         <v>0</v>
       </c>
-      <c r="F97" s="48"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="50"/>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="16.5">
-      <c r="B100" s="61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="16.5">
-      <c r="B102" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="2:9" ht="16.5">
-      <c r="B103" s="61" t="s">
-        <v>110</v>
+      <c r="F101" s="48"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="50"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="16.5">
       <c r="B104" s="61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" ht="16.5">
-      <c r="B105" s="61" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="16.5">
       <c r="B106" s="61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" ht="16.5">
-      <c r="B109" s="61" t="s">
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="2:9" ht="16.5">
+      <c r="B107" s="61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="16.5">
-      <c r="B110" s="61" t="s">
+    <row r="108" spans="2:9" ht="16.5">
+      <c r="B108" s="61" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3389,93 +3691,123 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="16.5">
-      <c r="B112" s="61" t="s">
+    <row r="113" spans="2:3">
+      <c r="B113" s="11" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="16.5">
-      <c r="B113" s="61" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="16.5">
       <c r="B114" s="61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="16.5">
+      <c r="B115" s="61" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="16.5">
+      <c r="B116" s="61" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="16.5">
       <c r="B117" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="C117" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="11" t="s">
+    <row r="118" spans="2:3" ht="16.5">
+      <c r="B118" s="61" t="s">
         <v>123</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="16.5">
       <c r="B119" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="2:3" ht="16.5">
-      <c r="B121" s="61"/>
+    </row>
+    <row r="122" spans="2:3" ht="16.5">
+      <c r="B122" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123"/>
+      <c r="B123" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="124" spans="2:3" ht="16.5">
-      <c r="B124" s="61"/>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="2:3" ht="16.5">
-      <c r="B127" s="61"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129"/>
-    </row>
-    <row r="130" spans="2:2" ht="16.5">
-      <c r="B130" s="61"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="2:2" ht="16.5">
-      <c r="B133" s="61"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135"/>
-    </row>
-    <row r="136" spans="2:2" ht="16.5">
-      <c r="B136" s="61"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138"/>
-    </row>
-    <row r="139" spans="2:2" ht="16.5">
-      <c r="B139" s="61"/>
-    </row>
-    <row r="140" spans="2:2" ht="16.5">
-      <c r="B140" s="61"/>
+      <c r="B124" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="16.5">
+      <c r="B125" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="16.5">
+      <c r="B126" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2" ht="16.5">
+      <c r="B129" s="61"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" ht="16.5">
+      <c r="B132" s="61"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" ht="16.5">
+      <c r="B135" s="61"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" ht="16.5">
+      <c r="B138" s="61"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" ht="16.5">
+      <c r="B141" s="61"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2" ht="16.5">
+      <c r="B144" s="61"/>
+    </row>
+    <row r="145" spans="2:2" ht="16.5">
+      <c r="B145" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I86:I87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3486,7 +3818,7 @@
           <x14:formula1>
             <xm:f>'Háttér adatok'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C97</xm:sqref>
+          <xm:sqref>C2:C101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3496,68 +3828,652 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3CBF3D-38A7-8C4B-BB2D-3FEB0CDA6495}">
-  <dimension ref="C1:C7"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="2:13" ht="15.75">
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="2:13" ht="15.75">
       <c r="C3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.75">
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="2:13" ht="15.75">
       <c r="C5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75">
       <c r="C6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="C7" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75"/>
+    <row r="16" spans="2:13" ht="15.75">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15.75">
+      <c r="C17" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15.75">
+      <c r="C18" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="15.75"/>
+    <row r="20" spans="3:13" ht="15.75">
+      <c r="C20" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15.75">
+      <c r="C21" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15.75">
+      <c r="C22" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15.75"/>
+    <row r="24" spans="3:13" ht="15.75">
+      <c r="C24" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15.75">
+      <c r="C25" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15.75">
+      <c r="C26" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15.75"/>
+    <row r="28" spans="3:13" ht="15.75">
+      <c r="C28" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15.75">
+      <c r="C29" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="M29" s="66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="15.75">
+      <c r="C30" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="L30" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15.75"/>
+    <row r="32" spans="3:13" ht="15.75">
+      <c r="C32" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="15.75">
+      <c r="C33" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" s="63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="15.75">
+      <c r="C34" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="15.75"/>
+    <row r="36" spans="3:13" ht="15.75">
+      <c r="C36" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M36" s="66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="15.75">
+      <c r="C37" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" s="63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="15.75">
+      <c r="C38" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="15.75"/>
+    <row r="40" spans="3:13" ht="15.75">
+      <c r="C40" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J40" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" s="66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="15.75">
+      <c r="C41" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="15.75">
+      <c r="C42" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I42" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L42" s="64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="15.75"/>
+    <row r="44" spans="3:13" ht="15.75">
+      <c r="C44" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M44" s="66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="15.75">
+      <c r="C45" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="L45" s="63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="15.75">
+      <c r="C46" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L46" s="64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="15.75"/>
+    <row r="48" spans="3:13" ht="15.75">
+      <c r="C48" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J48" t="s">
+        <v>190</v>
+      </c>
+      <c r="L48" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" s="66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="15.75">
+      <c r="C49" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" t="s">
+        <v>192</v>
+      </c>
+      <c r="L49" s="63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15.75">
+      <c r="C50" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L50" s="64" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{6B9A140B-20CD-4556-8980-F4E46A7FB097}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{80C85988-4D22-4705-AB23-3B90D754F4E2}"/>
+    <hyperlink ref="D28" r:id="rId3" xr:uid="{FB1D11CF-401F-44C1-BDC8-E024BAFBC5D6}"/>
+    <hyperlink ref="D29" r:id="rId4" xr:uid="{EF316422-25BD-4B10-AAEA-57DD63F53131}"/>
+    <hyperlink ref="D32" r:id="rId5" xr:uid="{724772D0-1B9C-4DB7-B8C3-D9A060AB1FD4}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{7DA9C854-07C0-419B-B012-9A3A07EE5B35}"/>
+    <hyperlink ref="G28" r:id="rId7" xr:uid="{5AC3E5C8-295B-4E65-93C8-D5E22328EDF4}"/>
+    <hyperlink ref="G32" r:id="rId8" xr:uid="{5446665C-1DA1-4D3B-B3BC-57F7D2CF78BC}"/>
+    <hyperlink ref="J16" r:id="rId9" xr:uid="{5F55F93B-E293-48EC-9D96-220711BAFAFD}"/>
+    <hyperlink ref="J17" r:id="rId10" xr:uid="{A3E0C4D1-2C5C-4221-985F-DF48688787F2}"/>
+    <hyperlink ref="J40" r:id="rId11" xr:uid="{CEB4455F-10E3-4CA1-98ED-DF1A3B34B098}"/>
+    <hyperlink ref="J32" r:id="rId12" xr:uid="{C1AE3226-CFB3-4EEE-B628-FD013B2D7174}"/>
+    <hyperlink ref="G29" r:id="rId13" xr:uid="{13EC0297-AE32-44D3-9762-DADFEE1712D5}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{42A79D78-95D9-402A-A29E-5C3A1DA1969B}"/>
+    <hyperlink ref="D36" r:id="rId15" xr:uid="{B555D4F6-2496-4B60-A963-6D719AAE1269}"/>
+    <hyperlink ref="D40" r:id="rId16" xr:uid="{BC0BA316-E930-41AE-81C5-08B3516BB0AE}"/>
+    <hyperlink ref="D48" r:id="rId17" xr:uid="{6A78F9F5-4959-4370-BBD9-A041CE927B49}"/>
+    <hyperlink ref="D44" r:id="rId18" xr:uid="{2432E060-32F6-49F2-96A1-BD715635FF70}"/>
+    <hyperlink ref="G48" r:id="rId19" xr:uid="{F40F1655-3F98-4723-BF7A-67CF3E0595FE}"/>
+    <hyperlink ref="G44" r:id="rId20" xr:uid="{50B9E3A7-7728-4035-A90C-2ABDD207AD01}"/>
+    <hyperlink ref="M48" r:id="rId21" xr:uid="{4E2E4774-334A-4DB1-8ACA-FEFCF9208C72}"/>
+    <hyperlink ref="G36" r:id="rId22" xr:uid="{93553122-47D5-437D-817E-22E8018AD8FD}"/>
+    <hyperlink ref="J36" r:id="rId23" xr:uid="{67C6EF5E-B976-4314-8052-E7CA24B87B5D}"/>
+    <hyperlink ref="J28" r:id="rId24" xr:uid="{E64894A9-09E5-4D44-A7AD-89F8BECC66B4}"/>
+    <hyperlink ref="J24" r:id="rId25" xr:uid="{4FF30399-F294-41E7-BEF7-8E4568D82CA4}"/>
+    <hyperlink ref="J44" r:id="rId26" xr:uid="{A67F5AEF-8C05-42EA-AF3E-62862D723BD1}"/>
+    <hyperlink ref="J20" r:id="rId27" xr:uid="{E38A2C24-E372-4461-ADA0-E16425C6BCE0}"/>
+    <hyperlink ref="G40" r:id="rId28" xr:uid="{43B0CD42-F214-479C-A302-267C8AD30113}"/>
+    <hyperlink ref="M44" r:id="rId29" xr:uid="{CB816704-97E5-40A8-82EA-B9887C134C21}"/>
+    <hyperlink ref="G16" r:id="rId30" xr:uid="{EA916198-1FC4-4A10-96B8-8F715E441C8C}"/>
+    <hyperlink ref="G24" r:id="rId31" xr:uid="{48CF2DAF-A038-4961-8511-D3C097F15230}"/>
+    <hyperlink ref="M20" r:id="rId32" xr:uid="{3294A58C-9E19-47AA-8676-AA467DADA89E}"/>
+    <hyperlink ref="M36" r:id="rId33" xr:uid="{0FE82FE0-0B89-4452-8614-2DAF6577E005}"/>
+    <hyperlink ref="M21" r:id="rId34" xr:uid="{D3174961-16DE-4B8A-A4A2-5DAF2F4A1C00}"/>
+    <hyperlink ref="M16" r:id="rId35" xr:uid="{CC324C96-2391-4588-88D7-ECBA1175BDC5}"/>
+    <hyperlink ref="M24" r:id="rId36" xr:uid="{BB8BF574-D2A5-4749-AF0E-04997CB893E3}"/>
+    <hyperlink ref="M28" r:id="rId37" xr:uid="{A21CBA3A-6A55-4FCD-ACAA-783F223D25BF}"/>
+    <hyperlink ref="M32" r:id="rId38" xr:uid="{1AB3FF1F-7425-4848-9E1E-105A0FC1F498}"/>
+    <hyperlink ref="M40" r:id="rId39" xr:uid="{FA3B054B-C31C-4781-9324-DF910ECD83C3}"/>
+    <hyperlink ref="D25" r:id="rId40" xr:uid="{930404CE-A508-4A97-9819-CE1D556689B0}"/>
+    <hyperlink ref="D21" r:id="rId41" xr:uid="{3CC17FBB-33EA-4DC0-8D9C-DCD490AB669D}"/>
+    <hyperlink ref="M29" r:id="rId42" xr:uid="{E7FCD7A2-64BF-4AE9-8173-04C3F0DAFEDF}"/>
+    <hyperlink ref="M25" r:id="rId43" xr:uid="{99440E37-B385-453E-9B7F-904EB02D2C55}"/>
+    <hyperlink ref="D37" r:id="rId44" xr:uid="{99AF3F5A-FF05-432E-AA22-BF0C92B2ABD2}"/>
+    <hyperlink ref="G33" r:id="rId45" xr:uid="{824523F3-94FF-4904-AC88-887F148EF45D}"/>
+    <hyperlink ref="J45" r:id="rId46" xr:uid="{91DE1B10-1B13-45C3-98C2-AB693AF598D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101007A98BF91376B2A41B363E000FACEDFA6" ma:contentTypeVersion="6" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="96e582282c6c8542bf9f00dcb2e962c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4596683d-58ad-46fd-a469-067e8bda3699" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49e95775c3edf2a82b9ab9732d4c1ca2" ns2:_="">
     <xsd:import namespace="4596683d-58ad-46fd-a469-067e8bda3699"/>
@@ -3715,14 +4631,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D4377A-D3DC-4408-8635-1B2609FA26E3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D4377A-D3DC-4408-8635-1B2609FA26E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}"/>
 </file>
--- a/EB_projekt_menet.xlsx
+++ b/EB_projekt_menet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plkik.sharepoint.com/sites/Esti_projektmunka_gyakorloter/Megosztott dokumentumok/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9A4162-E207-4AFE-8F63-F38FB4D91DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17631D01-1050-43F1-B5A3-7BE799787DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" firstSheet="1" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektlap" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="194">
   <si>
     <t>Projektmunka terv</t>
   </si>
@@ -245,6 +245,9 @@
     <t>eredmény formázása</t>
   </si>
   <si>
+    <t>eredmény - ha nincs, akkor kiírja, hogy nincs találat, ha több van, akkor több sort hoz le</t>
+  </si>
+  <si>
     <t xml:space="preserve">eredmény userhez rendelés </t>
   </si>
   <si>
@@ -392,6 +395,9 @@
     <t>szövegeket megírni</t>
   </si>
   <si>
+    <t>felhasználói kézikönyv</t>
+  </si>
+  <si>
     <t>kosár</t>
   </si>
   <si>
@@ -416,18 +422,18 @@
     <t>formázások, navigáció</t>
   </si>
   <si>
+    <t>nem megy</t>
+  </si>
+  <si>
     <t>számlaszám és adószám forma</t>
   </si>
   <si>
-    <t>nem megy</t>
+    <t>ok</t>
   </si>
   <si>
     <t>username ellenörzés</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>session okat betenni a találati oldalba</t>
   </si>
   <si>
@@ -441,9 +447,6 @@
   </si>
   <si>
     <t>Error</t>
-  </si>
-  <si>
-    <t>Ferkó</t>
   </si>
   <si>
     <t>kölyök</t>
@@ -1676,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E7F18-5A48-1C46-BD03-BEEDB5094022}">
-  <dimension ref="B1:I145"/>
+  <dimension ref="B1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1744,7 +1747,7 @@
         <v>44591</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E99" si="0">F3-D3</f>
+        <f t="shared" ref="E3:E100" si="0">F3-D3</f>
         <v>7</v>
       </c>
       <c r="F3" s="8">
@@ -2803,11 +2806,11 @@
         <v>10</v>
       </c>
       <c r="D62" s="6">
-        <v>44591</v>
+        <v>44660</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
+        <v>-44660</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="9" t="s">
@@ -2821,45 +2824,45 @@
         <v>68</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="6">
-        <v>44591</v>
+        <v>46</v>
+      </c>
+      <c r="D63" s="8">
+        <v>44648</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F63" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="F63" s="6">
+        <v>44660</v>
+      </c>
       <c r="G63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="30" t="s">
-        <v>69</v>
-      </c>
+      <c r="H63" s="30"/>
       <c r="I63" s="10"/>
     </row>
     <row r="64" spans="2:9" ht="18.75">
       <c r="B64" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D64" s="6">
-        <v>44646</v>
+        <v>44591</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="6">
-        <v>44646</v>
-      </c>
+        <v>-44591</v>
+      </c>
+      <c r="F64" s="14"/>
       <c r="G64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="30"/>
+      <c r="H64" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="I64" s="10"/>
     </row>
     <row r="65" spans="2:9" ht="18.75">
@@ -2867,55 +2870,59 @@
         <v>71</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D65" s="6">
         <v>44646</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
+      <c r="E65" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>44646</v>
+      </c>
       <c r="G65" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H65" s="30"/>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B66" s="33" t="s">
+    <row r="66" spans="2:9" ht="18.75">
+      <c r="B66" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E66" s="22">
+      <c r="D66" s="6">
+        <v>44646</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="30"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="2:9" s="26" customFormat="1" ht="18.75">
+      <c r="B67" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E67" s="22">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="24" t="s">
+      <c r="F67" s="27"/>
+      <c r="G67" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="H66" s="30"/>
-      <c r="I66" s="25"/>
-    </row>
-    <row r="67" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B67" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E67" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="H67" s="30"/>
       <c r="I67" s="25"/>
@@ -2991,14 +2998,14 @@
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H71" s="30"/>
       <c r="I71" s="25"/>
     </row>
     <row r="72" spans="2:9" s="26" customFormat="1" ht="18.75">
-      <c r="B72" s="13" t="s">
-        <v>24</v>
+      <c r="B72" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="6">
@@ -3010,14 +3017,14 @@
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B73" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="6">
@@ -3036,7 +3043,7 @@
     </row>
     <row r="74" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B74" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="6">
@@ -3053,82 +3060,76 @@
       <c r="H74" s="30"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75">
+    <row r="75" spans="2:9" s="26" customFormat="1" ht="18.75">
       <c r="B75" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="30"/>
+      <c r="I75" s="25"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75">
+      <c r="B76" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="D76" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E76" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>44640</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="30"/>
-      <c r="I75" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" s="26" customFormat="1" ht="23.25">
-      <c r="B76" s="19" t="s">
+      <c r="H76" s="30"/>
+      <c r="I76" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="20" t="s">
+    </row>
+    <row r="77" spans="2:9" s="26" customFormat="1" ht="23.25">
+      <c r="B77" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="21">
-        <v>44591</v>
-      </c>
-      <c r="E76" s="22">
+      <c r="D77" s="21">
+        <v>44591</v>
+      </c>
+      <c r="E77" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F77" s="23">
         <v>44592</v>
       </c>
-      <c r="G76" s="24" t="s">
+      <c r="G77" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="2:9" ht="18.75">
-      <c r="B77" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E77" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F77" s="6">
-        <v>44607</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="30"/>
-      <c r="I77" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="H77" s="29"/>
+      <c r="I77" s="25"/>
     </row>
     <row r="78" spans="2:9" ht="18.75">
       <c r="B78" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>46</v>
@@ -3137,16 +3138,19 @@
         <v>44591</v>
       </c>
       <c r="E78" s="7">
-        <f>F78-D78</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="F78" s="6">
-        <v>44602</v>
+        <v>44607</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H78" s="30"/>
+      <c r="I78" s="10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="79" spans="2:9" ht="18.75">
       <c r="B79" s="13" t="s">
@@ -3159,17 +3163,16 @@
         <v>44591</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>F79-D79</f>
+        <v>11</v>
       </c>
       <c r="F79" s="6">
-        <v>44612</v>
+        <v>44602</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="30"/>
-      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="2:9" ht="18.75">
       <c r="B80" s="13" t="s">
@@ -3183,10 +3186,10 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F80" s="6">
-        <v>44640</v>
+        <v>44612</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>14</v>
@@ -3206,10 +3209,10 @@
       </c>
       <c r="E81" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F81" s="6">
-        <v>44634</v>
+        <v>44640</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>14</v>
@@ -3225,14 +3228,14 @@
         <v>46</v>
       </c>
       <c r="D82" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F82" s="6">
         <v>44634</v>
-      </c>
-      <c r="E82" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F82" s="6">
-        <v>44657</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>14</v>
@@ -3248,14 +3251,14 @@
         <v>46</v>
       </c>
       <c r="D83" s="6">
-        <v>44591</v>
+        <v>44634</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F83" s="6">
-        <v>44634</v>
+        <v>44657</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>14</v>
@@ -3271,47 +3274,47 @@
         <v>46</v>
       </c>
       <c r="D84" s="6">
-        <v>44633</v>
+        <v>44591</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F84" s="6">
-        <v>44657</v>
+        <v>44634</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H84" s="30"/>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="2:9" ht="18.75">
+      <c r="B85" s="13" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="18.75">
-      <c r="B85" s="35" t="s">
-        <v>90</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D85" s="6">
-        <v>44591</v>
+        <v>44633</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F85" s="6">
-        <v>44638</v>
+        <v>44657</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="30"/>
-      <c r="I85" s="16"/>
-    </row>
-    <row r="86" spans="2:9" ht="21" customHeight="1">
+      <c r="I85" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="18.75">
       <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
@@ -3323,22 +3326,20 @@
       </c>
       <c r="E86" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F86" s="6">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H86" s="30"/>
-      <c r="I86" s="67" t="s">
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" spans="2:9" ht="21" customHeight="1">
+      <c r="B87" s="35" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="18.75">
-      <c r="B87" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>46</v>
@@ -3357,34 +3358,36 @@
         <v>14</v>
       </c>
       <c r="H87" s="30"/>
-      <c r="I87" s="68"/>
-    </row>
-    <row r="88" spans="2:9" ht="37.5">
-      <c r="B88" s="13" t="s">
+      <c r="I87" s="67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="18.75">
+      <c r="B88" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D88" s="6">
         <v>44591</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F88" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="F88" s="6">
+        <v>44639</v>
+      </c>
       <c r="G88" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H88" s="30"/>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="68"/>
+    </row>
+    <row r="89" spans="2:9" ht="37.5">
+      <c r="B89" s="13" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="18.75">
-      <c r="B89" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>10</v>
@@ -3396,15 +3399,17 @@
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F89" s="39"/>
+      <c r="F89" s="6"/>
       <c r="G89" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H89" s="30"/>
-      <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="2:9" ht="23.25">
-      <c r="B90" s="18" t="s">
+      <c r="I89" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="18.75">
+      <c r="B90" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -3413,44 +3418,42 @@
       <c r="D90" s="6">
         <v>44591</v>
       </c>
-      <c r="E90" s="37">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F90" s="36">
-        <v>44620</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>14</v>
+      <c r="E90" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F90" s="39"/>
+      <c r="G90" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H90" s="30"/>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="2:9" ht="18.75">
-      <c r="B91" s="13" t="s">
+    <row r="91" spans="2:9" ht="23.25">
+      <c r="B91" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D91" s="6">
         <v>44591</v>
       </c>
       <c r="E91" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F91" s="36">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="G91" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="31"/>
+      <c r="H91" s="30"/>
       <c r="I91" s="10"/>
     </row>
     <row r="92" spans="2:9" ht="18.75">
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -3461,16 +3464,16 @@
       </c>
       <c r="E92" s="37">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F92" s="36">
-        <v>44612</v>
-      </c>
-      <c r="G92" s="41" t="s">
+        <v>44592</v>
+      </c>
+      <c r="G92" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="40"/>
-      <c r="I92" s="42"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="10"/>
     </row>
     <row r="93" spans="2:9" ht="18.75">
       <c r="B93" s="15" t="s">
@@ -3484,12 +3487,14 @@
       </c>
       <c r="E93" s="37">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F93" s="36">
-        <v>44613</v>
-      </c>
-      <c r="G93" s="41"/>
+        <v>44612</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="H93" s="40"/>
       <c r="I93" s="42"/>
     </row>
@@ -3498,17 +3503,17 @@
         <v>101</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D94" s="6">
         <v>44591</v>
       </c>
       <c r="E94" s="37">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F94" s="36">
-        <v>44640</v>
+        <v>44613</v>
       </c>
       <c r="G94" s="41"/>
       <c r="H94" s="40"/>
@@ -3516,22 +3521,22 @@
     </row>
     <row r="95" spans="2:9" ht="18.75">
       <c r="B95" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D95" s="6">
         <v>44591</v>
       </c>
       <c r="E95" s="37">
         <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F95" s="36"/>
-      <c r="G95" s="41" t="s">
-        <v>14</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F95" s="36">
+        <v>44640</v>
+      </c>
+      <c r="G95" s="41"/>
       <c r="H95" s="40"/>
       <c r="I95" s="42"/>
     </row>
@@ -3561,7 +3566,7 @@
         <v>105</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D97" s="6">
         <v>44591</v>
@@ -3577,185 +3582,203 @@
       <c r="H97" s="40"/>
       <c r="I97" s="42"/>
     </row>
-    <row r="98" spans="2:9" ht="37.5">
+    <row r="98" spans="2:9" ht="18.75">
       <c r="B98" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="39">
-        <v>44591</v>
-      </c>
-      <c r="E98" s="44">
+      <c r="D98" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E98" s="37">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F98" s="45"/>
-      <c r="G98" s="46" t="s">
+      <c r="F98" s="36"/>
+      <c r="G98" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="47"/>
-      <c r="I98" s="42" t="s">
+      <c r="H98" s="40"/>
+      <c r="I98" s="42"/>
+    </row>
+    <row r="99" spans="2:9" ht="37.5">
+      <c r="B99" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" ht="18.75">
-      <c r="B99" s="51" t="s">
+      <c r="C99" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="39">
+        <v>44591</v>
+      </c>
+      <c r="E99" s="44">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F99" s="45"/>
+      <c r="G99" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="47"/>
+      <c r="I99" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="52" t="s">
+    </row>
+    <row r="100" spans="2:9" ht="18.75">
+      <c r="B100" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="53">
-        <v>44591</v>
-      </c>
-      <c r="E99" s="54">
+      <c r="D100" s="53">
+        <v>44591</v>
+      </c>
+      <c r="E100" s="54">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F99" s="52"/>
-      <c r="G99" s="55" t="s">
+      <c r="F100" s="52"/>
+      <c r="G100" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="40"/>
-      <c r="I99" s="56"/>
-    </row>
-    <row r="100" spans="2:9" ht="18.75">
-      <c r="B100" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="58" t="s">
+      <c r="H100" s="40"/>
+      <c r="I100" s="56"/>
+    </row>
+    <row r="101" spans="2:9" ht="18.75">
+      <c r="B101" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="53">
-        <v>44591</v>
-      </c>
-      <c r="E100" s="54"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="9" t="s">
+      <c r="D101" s="53">
+        <v>44591</v>
+      </c>
+      <c r="E101" s="54"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H100" s="59"/>
-      <c r="I100" s="60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="18.75">
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="54">
-        <f t="shared" ref="E101" si="1">F101-D101</f>
+      <c r="H101" s="59"/>
+      <c r="I101" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="18.75">
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="54">
+        <f t="shared" ref="E102" si="1">F102-D102</f>
         <v>0</v>
       </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="50"/>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="16.5">
-      <c r="B104" s="61" t="s">
+      <c r="F102" s="48"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="50"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="11" t="s">
+    <row r="105" spans="2:9" ht="16.5">
+      <c r="B105" s="61" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="16.5">
-      <c r="B106" s="61" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
     </row>
     <row r="107" spans="2:9" ht="16.5">
       <c r="B107" s="61" t="s">
         <v>115</v>
       </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" spans="2:9" ht="16.5">
       <c r="B108" s="61" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="16.5">
-      <c r="B111" s="61" t="s">
+    <row r="109" spans="2:9" ht="16.5">
+      <c r="B109" s="61" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="11" t="s">
+    <row r="111" spans="2:9">
+      <c r="B111" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="16.5">
-      <c r="B114" s="61" t="s">
+    <row r="112" spans="2:9" ht="16.5">
+      <c r="B112" s="61" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="16.5">
       <c r="B115" s="61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="16.5">
       <c r="B116" s="61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="16.5">
       <c r="B117" s="61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="16.5">
       <c r="B118" s="61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="16.5">
       <c r="B119" s="61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" ht="16.5">
-      <c r="B122" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="11" t="s">
+    </row>
+    <row r="120" spans="2:3" ht="16.5">
+      <c r="B120" s="61"/>
+    </row>
+    <row r="121" spans="2:3" ht="16.5">
+      <c r="B121" s="61" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="11" t="s">
+      <c r="C123" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="16.5">
       <c r="B124" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" ht="16.5">
-      <c r="B125" s="61" t="s">
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="16.5">
@@ -3763,51 +3786,64 @@
         <v>131</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="2:2" ht="16.5">
-      <c r="B129" s="61"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="2:2" ht="16.5">
-      <c r="B132" s="61"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="2:2" ht="16.5">
-      <c r="B135" s="61"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137"/>
-    </row>
-    <row r="138" spans="2:2" ht="16.5">
-      <c r="B138" s="61"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="2:2" ht="16.5">
-      <c r="B141" s="61"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143"/>
-    </row>
-    <row r="144" spans="2:2" ht="16.5">
-      <c r="B144" s="61"/>
-    </row>
-    <row r="145" spans="2:2" ht="16.5">
-      <c r="B145" s="61"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="16.5">
+      <c r="B127" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="16.5">
+      <c r="B128" s="61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2" ht="16.5">
+      <c r="B131" s="61"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" ht="16.5">
+      <c r="B134" s="61"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2" ht="16.5">
+      <c r="B137" s="61"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" ht="16.5">
+      <c r="B140" s="61"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" ht="16.5">
+      <c r="B143" s="61"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2" ht="16.5">
+      <c r="B146" s="61"/>
+    </row>
+    <row r="147" spans="2:2" ht="16.5">
+      <c r="B147" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I87:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3818,7 +3854,7 @@
           <x14:formula1>
             <xm:f>'Háttér adatok'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C101</xm:sqref>
+          <xm:sqref>C2:C102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3828,10 +3864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3CBF3D-38A7-8C4B-BB2D-3FEB0CDA6495}">
-  <dimension ref="B1:M50"/>
+  <dimension ref="C1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -3847,571 +3883,568 @@
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75">
+    <row r="1" spans="3:13" ht="15.75">
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15.75">
+    <row r="3" spans="3:13" ht="15.75">
       <c r="C3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15.75">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="15.75">
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15.75">
+    <row r="5" spans="3:13" ht="15.75">
       <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="15.75">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="15.75">
       <c r="C6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.75">
+    <row r="7" spans="3:13" ht="15.75">
       <c r="C7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.75"/>
-    <row r="16" spans="2:13" ht="15.75">
-      <c r="B16" t="s">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15.75"/>
+    <row r="16" spans="3:13" ht="15.75">
       <c r="C16" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J16" s="66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M16" s="66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="15.75">
       <c r="C17" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I17" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J17" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="63" t="s">
         <v>144</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="15.75">
       <c r="C18" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="15.75"/>
     <row r="20" spans="3:13" ht="15.75">
       <c r="C20" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M20" s="66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="15.75">
       <c r="C21" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D21" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="63" t="s">
-        <v>150</v>
-      </c>
       <c r="I21" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L21" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" s="66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="15.75">
       <c r="C22" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="15.75"/>
     <row r="24" spans="3:13" ht="15.75">
       <c r="C24" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J24" s="66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L24" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M24" s="66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="15.75">
       <c r="C25" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D25" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="63" t="s">
-        <v>157</v>
-      </c>
       <c r="I25" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="15.75">
       <c r="C26" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="15.75"/>
     <row r="28" spans="3:13" ht="15.75">
       <c r="C28" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J28" s="66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L28" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="15.75">
       <c r="C29" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G29" s="66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I29" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L29" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="15.75">
       <c r="C30" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="15.75"/>
     <row r="32" spans="3:13" ht="15.75">
       <c r="C32" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I32" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J32" s="66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="15.75">
       <c r="C33" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G33" s="66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I33" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L33" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="3:13" ht="15.75">
       <c r="C34" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L34" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="15.75"/>
     <row r="36" spans="3:13" ht="15.75">
       <c r="C36" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F36" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G36" s="66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I36" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J36" s="66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L36" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M36" s="66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="15.75">
       <c r="C37" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F37" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I37" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L37" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="15.75">
       <c r="C38" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I38" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="3:13" ht="15.75"/>
     <row r="40" spans="3:13" ht="15.75">
       <c r="C40" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G40" s="66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J40" s="66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L40" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M40" s="66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="15.75">
       <c r="C41" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I41" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L41" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="3:13" ht="15.75">
       <c r="C42" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I42" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="15.75"/>
     <row r="44" spans="3:13" ht="15.75">
       <c r="C44" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G44" s="66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I44" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J44" s="66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L44" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M44" s="66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="3:13" ht="15.75">
       <c r="C45" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F45" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I45" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J45" s="66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L45" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="15.75">
       <c r="C46" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I46" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="3:13" ht="15.75"/>
     <row r="48" spans="3:13" ht="15.75">
       <c r="C48" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F48" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G48" s="66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I48" s="62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L48" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M48" s="66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="15.75">
       <c r="C49" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F49" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I49" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L49" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="15.75">
       <c r="C50" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4468,9 +4501,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4632,16 +4668,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4649,5 +4682,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}"/>
 </file>